--- a/DATA_CLEANING/DATA_CLEANING.xlsx
+++ b/DATA_CLEANING/DATA_CLEANING.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\DATA_ANALYST\Excel_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\GITHUB\EXCEL\DATA_CLEANING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1165E3-5824-47E6-B2BF-A72B0769555A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5E068F-CC05-4209-A159-3E63B3386C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{12929F2C-160E-4521-BA3D-F9592354B056}"/>
   </bookViews>
@@ -4154,7 +4154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4170,8 +4170,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12505,19 +12503,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4A91CA-0AFA-4DDA-B310-422BB2458D05}">
   <dimension ref="A1:Q238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="8" customWidth="1"/>
+    <col min="1" max="3" width="8.33203125" customWidth="1"/>
     <col min="4" max="4" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -12530,13 +12526,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>1351</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>1105</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -12583,14 +12579,14 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="str">
-        <f>CONCATENATE(B2,C2)</f>
+      <c r="A2" t="str">
+        <f t="shared" ref="A2:A65" si="0">CONCATENATE(B2,C2)</f>
         <v>PR00147</v>
       </c>
       <c r="B2" t="s">
         <v>1106</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" t="s">
         <v>1107</v>
       </c>
       <c r="D2" t="s">
@@ -12636,14 +12632,14 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="str">
-        <f>CONCATENATE(B3,C3)</f>
+      <c r="A3" t="str">
+        <f t="shared" si="0"/>
         <v>PR04686</v>
       </c>
       <c r="B3" t="s">
         <v>1106</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" t="s">
         <v>1108</v>
       </c>
       <c r="D3" t="s">
@@ -12683,23 +12679,23 @@
         <v>859</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P66" si="0">TRIM(D3)</f>
+        <f t="shared" ref="P3:P66" si="1">TRIM(D3)</f>
         <v>Oona Donan</v>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q66" si="1">IF(I3&lt;1,"PART TIME","FULL TIME")</f>
+        <f t="shared" ref="Q3:Q66" si="2">IF(I3&lt;1,"PART TIME","FULL TIME")</f>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="str">
-        <f>CONCATENATE(B4,C4)</f>
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
         <v>SQ04612</v>
       </c>
       <c r="B4" t="s">
         <v>1109</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" t="s">
         <v>1110</v>
       </c>
       <c r="D4" t="s">
@@ -12736,23 +12732,23 @@
         <v>15</v>
       </c>
       <c r="P4" t="str">
+        <f t="shared" si="1"/>
+        <v>Mick Spraberry</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>Mick Spraberry</v>
-      </c>
-      <c r="Q4" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="str">
-        <f>CONCATENATE(B5,C5)</f>
         <v>VT01803</v>
       </c>
       <c r="B5" t="s">
         <v>1111</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" t="s">
         <v>1112</v>
       </c>
       <c r="D5" t="s">
@@ -12792,23 +12788,23 @@
         <v>859</v>
       </c>
       <c r="P5" t="str">
+        <f t="shared" si="1"/>
+        <v>Freddy Linford</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>Freddy Linford</v>
-      </c>
-      <c r="Q5" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="str">
-        <f>CONCATENATE(B6,C6)</f>
         <v>TN02749</v>
       </c>
       <c r="B6" t="s">
         <v>1113</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" t="s">
         <v>1114</v>
       </c>
       <c r="D6" t="s">
@@ -12848,23 +12844,23 @@
         <v>860</v>
       </c>
       <c r="P6" t="str">
+        <f t="shared" si="1"/>
+        <v>Mackenzie Hannis</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="2"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>Mackenzie Hannis</v>
-      </c>
-      <c r="Q6" t="str">
-        <f t="shared" si="1"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="str">
-        <f>CONCATENATE(B7,C7)</f>
         <v>SQ00144</v>
       </c>
       <c r="B7" t="s">
         <v>1109</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" t="s">
         <v>1115</v>
       </c>
       <c r="D7" t="s">
@@ -12904,23 +12900,23 @@
         <v>1096</v>
       </c>
       <c r="P7" t="str">
+        <f t="shared" si="1"/>
+        <v>Collen Dunbleton</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>Collen Dunbleton</v>
-      </c>
-      <c r="Q7" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="str">
-        <f>CONCATENATE(B8,C8)</f>
         <v>PR04601</v>
       </c>
       <c r="B8" t="s">
         <v>1106</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" t="s">
         <v>1116</v>
       </c>
       <c r="D8" t="s">
@@ -12960,23 +12956,23 @@
         <v>860</v>
       </c>
       <c r="P8" t="str">
+        <f t="shared" si="1"/>
+        <v>Nananne Gehringer</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="2"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>Nananne Gehringer</v>
-      </c>
-      <c r="Q8" t="str">
-        <f t="shared" si="1"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="str">
-        <f>CONCATENATE(B9,C9)</f>
         <v>SQ01854</v>
       </c>
       <c r="B9" t="s">
         <v>1109</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" t="s">
         <v>1117</v>
       </c>
       <c r="D9" t="s">
@@ -13013,23 +13009,23 @@
         <v>15</v>
       </c>
       <c r="P9" t="str">
+        <f t="shared" si="1"/>
+        <v>Jessica Callcott</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="2"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>Jessica Callcott</v>
-      </c>
-      <c r="Q9" t="str">
-        <f t="shared" si="1"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="str">
-        <f>CONCATENATE(B10,C10)</f>
         <v>SQ00612</v>
       </c>
       <c r="B10" t="s">
         <v>1109</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" t="s">
         <v>1118</v>
       </c>
       <c r="D10" t="s">
@@ -13069,23 +13065,23 @@
         <v>1096</v>
       </c>
       <c r="P10" t="str">
+        <f t="shared" si="1"/>
+        <v>Leena Bruckshaw</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>Leena Bruckshaw</v>
-      </c>
-      <c r="Q10" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="str">
-        <f>CONCATENATE(B11,C11)</f>
         <v>PR00419</v>
       </c>
       <c r="B11" t="s">
         <v>1106</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" t="s">
         <v>1119</v>
       </c>
       <c r="D11" t="s">
@@ -13122,23 +13118,23 @@
         <v>15</v>
       </c>
       <c r="P11" t="str">
+        <f t="shared" si="1"/>
+        <v>Billi Fellgate</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="2"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>Billi Fellgate</v>
-      </c>
-      <c r="Q11" t="str">
-        <f t="shared" si="1"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="str">
-        <f>CONCATENATE(B12,C12)</f>
         <v>VT00578</v>
       </c>
       <c r="B12" t="s">
         <v>1111</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" t="s">
         <v>1120</v>
       </c>
       <c r="D12" t="s">
@@ -13175,23 +13171,23 @@
         <v>15</v>
       </c>
       <c r="P12" t="str">
+        <f t="shared" si="1"/>
+        <v>Magnum Locksley</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>Magnum Locksley</v>
-      </c>
-      <c r="Q12" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="str">
-        <f>CONCATENATE(B13,C13)</f>
         <v>TN01281</v>
       </c>
       <c r="B13" t="s">
         <v>1113</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" t="s">
         <v>1121</v>
       </c>
       <c r="D13" t="s">
@@ -13231,23 +13227,23 @@
         <v>1096</v>
       </c>
       <c r="P13" t="str">
+        <f t="shared" si="1"/>
+        <v>Cletus McGarahan</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>Cletus McGarahan</v>
-      </c>
-      <c r="Q13" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="str">
-        <f>CONCATENATE(B14,C14)</f>
         <v>PR04473</v>
       </c>
       <c r="B14" t="s">
         <v>1106</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" t="s">
         <v>1122</v>
       </c>
       <c r="D14" t="s">
@@ -13287,23 +13283,23 @@
         <v>1097</v>
       </c>
       <c r="P14" t="str">
+        <f t="shared" si="1"/>
+        <v>Wyn Treadger</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>Wyn Treadger</v>
-      </c>
-      <c r="Q14" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="str">
-        <f>CONCATENATE(B15,C15)</f>
         <v>VT02417</v>
       </c>
       <c r="B15" t="s">
         <v>1111</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" t="s">
         <v>1123</v>
       </c>
       <c r="D15" t="s">
@@ -13343,23 +13339,23 @@
         <v>1098</v>
       </c>
       <c r="P15" t="str">
+        <f t="shared" si="1"/>
+        <v>Evangelina Lergan</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>Evangelina Lergan</v>
-      </c>
-      <c r="Q15" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="str">
-        <f>CONCATENATE(B16,C16)</f>
         <v>SQ00691</v>
       </c>
       <c r="B16" t="s">
         <v>1109</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" t="s">
         <v>1124</v>
       </c>
       <c r="D16" t="s">
@@ -13396,23 +13392,23 @@
         <v>15</v>
       </c>
       <c r="P16" t="str">
+        <f t="shared" si="1"/>
+        <v>Verla Timmis</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>Verla Timmis</v>
-      </c>
-      <c r="Q16" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="str">
-        <f>CONCATENATE(B17,C17)</f>
         <v>TN00214</v>
       </c>
       <c r="B17" t="s">
         <v>1113</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" t="s">
         <v>1125</v>
       </c>
       <c r="D17" t="s">
@@ -13452,23 +13448,23 @@
         <v>1099</v>
       </c>
       <c r="P17" t="str">
+        <f t="shared" si="1"/>
+        <v>Jo-anne Gobeau</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>Jo-anne Gobeau</v>
-      </c>
-      <c r="Q17" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="str">
-        <f>CONCATENATE(B18,C18)</f>
         <v>VT02539</v>
       </c>
       <c r="B18" t="s">
         <v>1111</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" t="s">
         <v>1126</v>
       </c>
       <c r="D18" t="s">
@@ -13508,23 +13504,23 @@
         <v>1097</v>
       </c>
       <c r="P18" t="str">
+        <f t="shared" si="1"/>
+        <v>Devinne Tuny</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>Devinne Tuny</v>
-      </c>
-      <c r="Q18" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="str">
-        <f>CONCATENATE(B19,C19)</f>
         <v>SQ04598</v>
       </c>
       <c r="B19" t="s">
         <v>1109</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" t="s">
         <v>1127</v>
       </c>
       <c r="D19" t="s">
@@ -13561,23 +13557,23 @@
         <v>15</v>
       </c>
       <c r="P19" t="str">
+        <f t="shared" si="1"/>
+        <v>Pearla Beteriss</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>Pearla Beteriss</v>
-      </c>
-      <c r="Q19" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="str">
-        <f>CONCATENATE(B20,C20)</f>
         <v>TN00464</v>
       </c>
       <c r="B20" t="s">
         <v>1113</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" t="s">
         <v>1128</v>
       </c>
       <c r="D20" t="s">
@@ -13617,23 +13613,23 @@
         <v>1099</v>
       </c>
       <c r="P20" t="str">
+        <f t="shared" si="1"/>
+        <v>Maritsa Marusic</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>Maritsa Marusic</v>
-      </c>
-      <c r="Q20" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="str">
-        <f>CONCATENATE(B21,C21)</f>
         <v>PR00893</v>
       </c>
       <c r="B21" t="s">
         <v>1106</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" t="s">
         <v>1129</v>
       </c>
       <c r="D21" t="s">
@@ -13673,23 +13669,23 @@
         <v>860</v>
       </c>
       <c r="P21" t="str">
+        <f t="shared" si="1"/>
+        <v>Daisie McNeice</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="2"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>Daisie McNeice</v>
-      </c>
-      <c r="Q21" t="str">
-        <f t="shared" si="1"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="str">
-        <f>CONCATENATE(B22,C22)</f>
         <v>PR00882</v>
       </c>
       <c r="B22" t="s">
         <v>1106</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" t="s">
         <v>1130</v>
       </c>
       <c r="D22" t="s">
@@ -13729,23 +13725,23 @@
         <v>1097</v>
       </c>
       <c r="P22" t="str">
+        <f t="shared" si="1"/>
+        <v>Jill Shipsey</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="2"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>Jill Shipsey</v>
-      </c>
-      <c r="Q22" t="str">
-        <f t="shared" si="1"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="str">
-        <f>CONCATENATE(B23,C23)</f>
         <v>PR03445</v>
       </c>
       <c r="B23" t="s">
         <v>1106</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" t="s">
         <v>1131</v>
       </c>
       <c r="D23" t="s">
@@ -13782,23 +13778,23 @@
         <v>15</v>
       </c>
       <c r="P23" t="str">
+        <f t="shared" si="1"/>
+        <v>Myrle Prandoni</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v>Myrle Prandoni</v>
-      </c>
-      <c r="Q23" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="str">
-        <f>CONCATENATE(B24,C24)</f>
         <v>TN03416</v>
       </c>
       <c r="B24" t="s">
         <v>1113</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" t="s">
         <v>1132</v>
       </c>
       <c r="D24" t="s">
@@ -13835,23 +13831,23 @@
         <v>15</v>
       </c>
       <c r="P24" t="str">
+        <f t="shared" si="1"/>
+        <v>Seward Kubera</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="2"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v>Seward Kubera</v>
-      </c>
-      <c r="Q24" t="str">
-        <f t="shared" si="1"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="str">
-        <f>CONCATENATE(B25,C25)</f>
         <v>TN00890</v>
       </c>
       <c r="B25" t="s">
         <v>1113</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" t="s">
         <v>1133</v>
       </c>
       <c r="D25" t="s">
@@ -13891,23 +13887,23 @@
         <v>860</v>
       </c>
       <c r="P25" t="str">
+        <f t="shared" si="1"/>
+        <v>Dean Biggam</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="2"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
         <f t="shared" si="0"/>
-        <v>Dean Biggam</v>
-      </c>
-      <c r="Q25" t="str">
-        <f t="shared" si="1"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="str">
-        <f>CONCATENATE(B26,C26)</f>
         <v>VT04137</v>
       </c>
       <c r="B26" t="s">
         <v>1111</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" t="s">
         <v>1134</v>
       </c>
       <c r="D26" t="s">
@@ -13944,23 +13940,23 @@
         <v>15</v>
       </c>
       <c r="P26" t="str">
+        <f t="shared" si="1"/>
+        <v>Marissa Infante</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" t="str">
         <f t="shared" si="0"/>
-        <v>Marissa Infante</v>
-      </c>
-      <c r="Q26" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="str">
-        <f>CONCATENATE(B27,C27)</f>
         <v>PR02603</v>
       </c>
       <c r="B27" t="s">
         <v>1106</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" t="s">
         <v>1135</v>
       </c>
       <c r="D27" t="s">
@@ -14000,23 +13996,23 @@
         <v>860</v>
       </c>
       <c r="P27" t="str">
+        <f t="shared" si="1"/>
+        <v>Daisie Dahlman</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="2"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="str">
         <f t="shared" si="0"/>
-        <v>Daisie Dahlman</v>
-      </c>
-      <c r="Q27" t="str">
-        <f t="shared" si="1"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="str">
-        <f>CONCATENATE(B28,C28)</f>
         <v>PR03158</v>
       </c>
       <c r="B28" t="s">
         <v>1106</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" t="s">
         <v>1136</v>
       </c>
       <c r="D28" t="s">
@@ -14056,23 +14052,23 @@
         <v>1096</v>
       </c>
       <c r="P28" t="str">
+        <f t="shared" si="1"/>
+        <v>Danica Nayshe</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v>Danica Nayshe</v>
-      </c>
-      <c r="Q28" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="str">
-        <f>CONCATENATE(B29,C29)</f>
         <v>PR02288</v>
       </c>
       <c r="B29" t="s">
         <v>1106</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" t="s">
         <v>1137</v>
       </c>
       <c r="D29" t="s">
@@ -14112,23 +14108,23 @@
         <v>1097</v>
       </c>
       <c r="P29" t="str">
+        <f t="shared" si="1"/>
+        <v>Althea Bronger</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v>Althea Bronger</v>
-      </c>
-      <c r="Q29" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="str">
-        <f>CONCATENATE(B30,C30)</f>
         <v>VT03849</v>
       </c>
       <c r="B30" t="s">
         <v>1111</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" t="s">
         <v>1138</v>
       </c>
       <c r="D30" t="s">
@@ -14168,23 +14164,23 @@
         <v>1096</v>
       </c>
       <c r="P30" t="str">
+        <f t="shared" si="1"/>
+        <v>Leonidas Cavaney</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>Leonidas Cavaney</v>
-      </c>
-      <c r="Q30" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="str">
-        <f>CONCATENATE(B31,C31)</f>
         <v>SQ01395</v>
       </c>
       <c r="B31" t="s">
         <v>1109</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" t="s">
         <v>1139</v>
       </c>
       <c r="D31" t="s">
@@ -14224,23 +14220,23 @@
         <v>859</v>
       </c>
       <c r="P31" t="str">
+        <f t="shared" si="1"/>
+        <v>Dennison Crosswaite</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="2"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>Dennison Crosswaite</v>
-      </c>
-      <c r="Q31" t="str">
-        <f t="shared" si="1"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="str">
-        <f>CONCATENATE(B32,C32)</f>
         <v>SQ02559</v>
       </c>
       <c r="B32" t="s">
         <v>1109</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" t="s">
         <v>1140</v>
       </c>
       <c r="D32" t="s">
@@ -14280,23 +14276,23 @@
         <v>1097</v>
       </c>
       <c r="P32" t="str">
+        <f t="shared" si="1"/>
+        <v>Aldrich Glenny</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>Aldrich Glenny</v>
-      </c>
-      <c r="Q32" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="str">
-        <f>CONCATENATE(B33,C33)</f>
         <v>VT04627</v>
       </c>
       <c r="B33" t="s">
         <v>1111</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" t="s">
         <v>1141</v>
       </c>
       <c r="D33" t="s">
@@ -14333,23 +14329,23 @@
         <v>15</v>
       </c>
       <c r="P33" t="str">
+        <f t="shared" si="1"/>
+        <v>Yvette Bett</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="2"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>Yvette Bett</v>
-      </c>
-      <c r="Q33" t="str">
-        <f t="shared" si="1"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="str">
-        <f>CONCATENATE(B34,C34)</f>
         <v>VT03537</v>
       </c>
       <c r="B34" t="s">
         <v>1111</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" t="s">
         <v>1142</v>
       </c>
       <c r="D34" t="s">
@@ -14386,23 +14382,23 @@
         <v>15</v>
       </c>
       <c r="P34" t="str">
+        <f t="shared" si="1"/>
+        <v>Renaldo Thomassin</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>Renaldo Thomassin</v>
-      </c>
-      <c r="Q34" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="str">
-        <f>CONCATENATE(B35,C35)</f>
         <v>PR01951</v>
       </c>
       <c r="B35" t="s">
         <v>1106</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" t="s">
         <v>1143</v>
       </c>
       <c r="D35" t="s">
@@ -14440,23 +14436,23 @@
         <v>1098</v>
       </c>
       <c r="P35" t="str">
+        <f t="shared" si="1"/>
+        <v>Aloise MacCathay</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="2"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>Aloise MacCathay</v>
-      </c>
-      <c r="Q35" t="str">
-        <f t="shared" si="1"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="str">
-        <f>CONCATENATE(B36,C36)</f>
         <v>PR01662</v>
       </c>
       <c r="B36" t="s">
         <v>1106</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" t="s">
         <v>1144</v>
       </c>
       <c r="D36" t="s">
@@ -14496,23 +14492,23 @@
         <v>1098</v>
       </c>
       <c r="P36" t="str">
+        <f t="shared" si="1"/>
+        <v>Genevra Friday</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="2"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>Genevra Friday</v>
-      </c>
-      <c r="Q36" t="str">
-        <f t="shared" si="1"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="str">
-        <f>CONCATENATE(B37,C37)</f>
         <v>VT02313</v>
       </c>
       <c r="B37" t="s">
         <v>1111</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" t="s">
         <v>1145</v>
       </c>
       <c r="D37" t="s">
@@ -14552,23 +14548,23 @@
         <v>1097</v>
       </c>
       <c r="P37" t="str">
+        <f t="shared" si="1"/>
+        <v>Thekla Lynnett</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v>Thekla Lynnett</v>
-      </c>
-      <c r="Q37" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="str">
-        <f>CONCATENATE(B38,C38)</f>
         <v>SQ01620</v>
       </c>
       <c r="B38" t="s">
         <v>1109</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" t="s">
         <v>1146</v>
       </c>
       <c r="D38" t="s">
@@ -14605,23 +14601,23 @@
         <v>15</v>
       </c>
       <c r="P38" t="str">
+        <f t="shared" si="1"/>
+        <v>Westbrook Brandino</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" t="str">
         <f t="shared" si="0"/>
-        <v>Westbrook Brandino</v>
-      </c>
-      <c r="Q38" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="str">
-        <f>CONCATENATE(B39,C39)</f>
         <v>VT04681</v>
       </c>
       <c r="B39" t="s">
         <v>1111</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" t="s">
         <v>1147</v>
       </c>
       <c r="D39" t="s">
@@ -14661,23 +14657,23 @@
         <v>1096</v>
       </c>
       <c r="P39" t="str">
+        <f t="shared" si="1"/>
+        <v>Nickolai Artin</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="str">
         <f t="shared" si="0"/>
-        <v>Nickolai Artin</v>
-      </c>
-      <c r="Q39" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="str">
-        <f>CONCATENATE(B40,C40)</f>
         <v>TN04246</v>
       </c>
       <c r="B40" t="s">
         <v>1113</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" t="s">
         <v>1148</v>
       </c>
       <c r="D40" t="s">
@@ -14717,23 +14713,23 @@
         <v>1098</v>
       </c>
       <c r="P40" t="str">
+        <f t="shared" si="1"/>
+        <v>Shaylyn Ransbury</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="2"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" t="str">
         <f t="shared" si="0"/>
-        <v>Shaylyn Ransbury</v>
-      </c>
-      <c r="Q40" t="str">
-        <f t="shared" si="1"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="str">
-        <f>CONCATENATE(B41,C41)</f>
         <v>TN02570</v>
       </c>
       <c r="B41" t="s">
         <v>1113</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" t="s">
         <v>1149</v>
       </c>
       <c r="D41" t="s">
@@ -14770,23 +14766,23 @@
         <v>15</v>
       </c>
       <c r="P41" t="str">
+        <f t="shared" si="1"/>
+        <v>Grady Rochelle</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" t="str">
         <f t="shared" si="0"/>
-        <v>Grady Rochelle</v>
-      </c>
-      <c r="Q41" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="str">
-        <f>CONCATENATE(B42,C42)</f>
         <v>VT02801</v>
       </c>
       <c r="B42" t="s">
         <v>1111</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" t="s">
         <v>1150</v>
       </c>
       <c r="D42" t="s">
@@ -14826,23 +14822,23 @@
         <v>1096</v>
       </c>
       <c r="P42" t="str">
+        <f t="shared" si="1"/>
+        <v>Shellysheldon Mahady</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" t="str">
         <f t="shared" si="0"/>
-        <v>Shellysheldon Mahady</v>
-      </c>
-      <c r="Q42" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="str">
-        <f>CONCATENATE(B43,C43)</f>
         <v>SQ01177</v>
       </c>
       <c r="B43" t="s">
         <v>1109</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" t="s">
         <v>1151</v>
       </c>
       <c r="D43" t="s">
@@ -14882,23 +14878,23 @@
         <v>860</v>
       </c>
       <c r="P43" t="str">
+        <f t="shared" si="1"/>
+        <v>Riccardo Hagan</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="str">
         <f t="shared" si="0"/>
-        <v>Riccardo Hagan</v>
-      </c>
-      <c r="Q43" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="str">
-        <f>CONCATENATE(B44,C44)</f>
         <v>VT01740</v>
       </c>
       <c r="B44" t="s">
         <v>1111</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" t="s">
         <v>1152</v>
       </c>
       <c r="D44" t="s">
@@ -14935,23 +14931,23 @@
         <v>15</v>
       </c>
       <c r="P44" t="str">
+        <f t="shared" si="1"/>
+        <v>Ginger Myott</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" t="str">
         <f t="shared" si="0"/>
-        <v>Ginger Myott</v>
-      </c>
-      <c r="Q44" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="str">
-        <f>CONCATENATE(B45,C45)</f>
         <v>TN01876</v>
       </c>
       <c r="B45" t="s">
         <v>1113</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" t="s">
         <v>1153</v>
       </c>
       <c r="D45" t="s">
@@ -14991,23 +14987,23 @@
         <v>1098</v>
       </c>
       <c r="P45" t="str">
+        <f t="shared" si="1"/>
+        <v>Aileen McCritchie</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" t="str">
         <f t="shared" si="0"/>
-        <v>Aileen McCritchie</v>
-      </c>
-      <c r="Q45" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="str">
-        <f>CONCATENATE(B46,C46)</f>
         <v>VT03988</v>
       </c>
       <c r="B46" t="s">
         <v>1111</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" t="s">
         <v>1154</v>
       </c>
       <c r="D46" t="s">
@@ -15047,23 +15043,23 @@
         <v>860</v>
       </c>
       <c r="P46" t="str">
+        <f t="shared" si="1"/>
+        <v>Oby Sorrel</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" t="str">
         <f t="shared" si="0"/>
-        <v>Oby Sorrel</v>
-      </c>
-      <c r="Q46" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="str">
-        <f>CONCATENATE(B47,C47)</f>
         <v>TN00227</v>
       </c>
       <c r="B47" t="s">
         <v>1113</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" t="s">
         <v>1155</v>
       </c>
       <c r="D47" t="s">
@@ -15103,23 +15099,23 @@
         <v>1099</v>
       </c>
       <c r="P47" t="str">
+        <f t="shared" si="1"/>
+        <v>Lincoln Cord</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" t="str">
         <f t="shared" si="0"/>
-        <v>Lincoln Cord</v>
-      </c>
-      <c r="Q47" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="str">
-        <f>CONCATENATE(B48,C48)</f>
         <v>VT01092</v>
       </c>
       <c r="B48" t="s">
         <v>1111</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" t="s">
         <v>1156</v>
       </c>
       <c r="D48" t="s">
@@ -15159,23 +15155,23 @@
         <v>1098</v>
       </c>
       <c r="P48" t="str">
+        <f t="shared" si="1"/>
+        <v>Tabby Astall</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" t="str">
         <f t="shared" si="0"/>
-        <v>Tabby Astall</v>
-      </c>
-      <c r="Q48" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="str">
-        <f>CONCATENATE(B49,C49)</f>
         <v>TN03169</v>
       </c>
       <c r="B49" t="s">
         <v>1113</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" t="s">
         <v>1157</v>
       </c>
       <c r="D49" t="s">
@@ -15212,23 +15208,23 @@
         <v>15</v>
       </c>
       <c r="P49" t="str">
+        <f t="shared" si="1"/>
+        <v>Doe Clubley</v>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" si="2"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" t="str">
         <f t="shared" si="0"/>
-        <v>Doe Clubley</v>
-      </c>
-      <c r="Q49" t="str">
-        <f t="shared" si="1"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="str">
-        <f>CONCATENATE(B50,C50)</f>
         <v>SQ01402</v>
       </c>
       <c r="B50" t="s">
         <v>1109</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" t="s">
         <v>1158</v>
       </c>
       <c r="D50" t="s">
@@ -15268,23 +15264,23 @@
         <v>860</v>
       </c>
       <c r="P50" t="str">
+        <f t="shared" si="1"/>
+        <v>Julietta Culross</v>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" t="str">
         <f t="shared" si="0"/>
-        <v>Julietta Culross</v>
-      </c>
-      <c r="Q50" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="str">
-        <f>CONCATENATE(B51,C51)</f>
         <v>SQ00360</v>
       </c>
       <c r="B51" t="s">
         <v>1109</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" t="s">
         <v>1159</v>
       </c>
       <c r="D51" t="s">
@@ -15324,23 +15320,23 @@
         <v>1096</v>
       </c>
       <c r="P51" t="str">
+        <f t="shared" si="1"/>
+        <v>Orlando Gorstidge</v>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" si="2"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="str">
         <f t="shared" si="0"/>
-        <v>Orlando Gorstidge</v>
-      </c>
-      <c r="Q51" t="str">
-        <f t="shared" si="1"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="str">
-        <f>CONCATENATE(B52,C52)</f>
         <v>PR02208</v>
       </c>
       <c r="B52" t="s">
         <v>1106</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" t="s">
         <v>1160</v>
       </c>
       <c r="D52" t="s">
@@ -15380,23 +15376,23 @@
         <v>860</v>
       </c>
       <c r="P52" t="str">
+        <f t="shared" si="1"/>
+        <v>Vernor Atyea</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" t="str">
         <f t="shared" si="0"/>
-        <v>Vernor Atyea</v>
-      </c>
-      <c r="Q52" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="str">
-        <f>CONCATENATE(B53,C53)</f>
         <v>SQ01637</v>
       </c>
       <c r="B53" t="s">
         <v>1109</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" t="s">
         <v>1161</v>
       </c>
       <c r="D53" t="s">
@@ -15436,23 +15432,23 @@
         <v>1097</v>
       </c>
       <c r="P53" t="str">
+        <f t="shared" si="1"/>
+        <v>Joaquin McVitty</v>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" si="2"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" t="str">
         <f t="shared" si="0"/>
-        <v>Joaquin McVitty</v>
-      </c>
-      <c r="Q53" t="str">
-        <f t="shared" si="1"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="str">
-        <f>CONCATENATE(B54,C54)</f>
         <v>TN03210</v>
       </c>
       <c r="B54" t="s">
         <v>1113</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" t="s">
         <v>1162</v>
       </c>
       <c r="D54" t="s">
@@ -15492,23 +15488,23 @@
         <v>1099</v>
       </c>
       <c r="P54" t="str">
+        <f t="shared" si="1"/>
+        <v>Kellsie Waby</v>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" t="str">
         <f t="shared" si="0"/>
-        <v>Kellsie Waby</v>
-      </c>
-      <c r="Q54" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="str">
-        <f>CONCATENATE(B55,C55)</f>
         <v>PR03844</v>
       </c>
       <c r="B55" t="s">
         <v>1106</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" t="s">
         <v>1163</v>
       </c>
       <c r="D55" t="s">
@@ -15548,23 +15544,23 @@
         <v>1097</v>
       </c>
       <c r="P55" t="str">
+        <f t="shared" si="1"/>
+        <v>Brose MacCorkell</v>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" t="str">
         <f t="shared" si="0"/>
-        <v>Brose MacCorkell</v>
-      </c>
-      <c r="Q55" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" s="8" t="str">
-        <f>CONCATENATE(B56,C56)</f>
         <v>VT04093</v>
       </c>
       <c r="B56" t="s">
         <v>1111</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" t="s">
         <v>1164</v>
       </c>
       <c r="D56" t="s">
@@ -15604,23 +15600,23 @@
         <v>1099</v>
       </c>
       <c r="P56" t="str">
+        <f t="shared" si="1"/>
+        <v>Ewart Hovel</v>
+      </c>
+      <c r="Q56" t="str">
+        <f t="shared" si="2"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" t="str">
         <f t="shared" si="0"/>
-        <v>Ewart Hovel</v>
-      </c>
-      <c r="Q56" t="str">
-        <f t="shared" si="1"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A57" s="8" t="str">
-        <f>CONCATENATE(B57,C57)</f>
         <v>SQ02246</v>
       </c>
       <c r="B57" t="s">
         <v>1109</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" t="s">
         <v>1165</v>
       </c>
       <c r="D57" t="s">
@@ -15660,23 +15656,23 @@
         <v>1096</v>
       </c>
       <c r="P57" t="str">
+        <f t="shared" si="1"/>
+        <v>Matias Cormack</v>
+      </c>
+      <c r="Q57" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" t="str">
         <f t="shared" si="0"/>
-        <v>Matias Cormack</v>
-      </c>
-      <c r="Q57" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="str">
-        <f>CONCATENATE(B58,C58)</f>
         <v>TN03032</v>
       </c>
       <c r="B58" t="s">
         <v>1113</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" t="s">
         <v>1166</v>
       </c>
       <c r="D58" t="s">
@@ -15716,23 +15712,23 @@
         <v>1099</v>
       </c>
       <c r="P58" t="str">
+        <f t="shared" si="1"/>
+        <v>Debera Gow</v>
+      </c>
+      <c r="Q58" t="str">
+        <f t="shared" si="2"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" t="str">
         <f t="shared" si="0"/>
-        <v>Debera Gow</v>
-      </c>
-      <c r="Q58" t="str">
-        <f t="shared" si="1"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" s="8" t="str">
-        <f>CONCATENATE(B59,C59)</f>
         <v>SQ00914</v>
       </c>
       <c r="B59" t="s">
         <v>1109</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" t="s">
         <v>1167</v>
       </c>
       <c r="D59" t="s">
@@ -15772,23 +15768,23 @@
         <v>1099</v>
       </c>
       <c r="P59" t="str">
+        <f t="shared" si="1"/>
+        <v>Ansley Gounel</v>
+      </c>
+      <c r="Q59" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" t="str">
         <f t="shared" si="0"/>
-        <v>Ansley Gounel</v>
-      </c>
-      <c r="Q59" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="str">
-        <f>CONCATENATE(B60,C60)</f>
         <v>SQ02525</v>
       </c>
       <c r="B60" t="s">
         <v>1109</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" t="s">
         <v>1168</v>
       </c>
       <c r="D60" t="s">
@@ -15828,23 +15824,23 @@
         <v>1096</v>
       </c>
       <c r="P60" t="str">
+        <f t="shared" si="1"/>
+        <v>Mickie Dagwell</v>
+      </c>
+      <c r="Q60" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" t="str">
         <f t="shared" si="0"/>
-        <v>Mickie Dagwell</v>
-      </c>
-      <c r="Q60" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="str">
-        <f>CONCATENATE(B61,C61)</f>
         <v>TN02667</v>
       </c>
       <c r="B61" t="s">
         <v>1113</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" t="s">
         <v>1169</v>
       </c>
       <c r="D61" t="s">
@@ -15884,23 +15880,23 @@
         <v>1098</v>
       </c>
       <c r="P61" t="str">
+        <f t="shared" si="1"/>
+        <v>Lizzie Mullally</v>
+      </c>
+      <c r="Q61" t="str">
+        <f t="shared" si="2"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" t="str">
         <f t="shared" si="0"/>
-        <v>Lizzie Mullally</v>
-      </c>
-      <c r="Q61" t="str">
-        <f t="shared" si="1"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="8" t="str">
-        <f>CONCATENATE(B62,C62)</f>
         <v>PR02782</v>
       </c>
       <c r="B62" t="s">
         <v>1106</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" t="s">
         <v>1170</v>
       </c>
       <c r="D62" t="s">
@@ -15940,23 +15936,23 @@
         <v>1098</v>
       </c>
       <c r="P62" t="str">
+        <f t="shared" si="1"/>
+        <v>Isaak Rawne</v>
+      </c>
+      <c r="Q62" t="str">
+        <f t="shared" si="2"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" t="str">
         <f t="shared" si="0"/>
-        <v>Isaak Rawne</v>
-      </c>
-      <c r="Q62" t="str">
-        <f t="shared" si="1"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" s="8" t="str">
-        <f>CONCATENATE(B63,C63)</f>
         <v>TN03331</v>
       </c>
       <c r="B63" t="s">
         <v>1113</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" t="s">
         <v>1171</v>
       </c>
       <c r="D63" t="s">
@@ -15996,23 +15992,23 @@
         <v>1098</v>
       </c>
       <c r="P63" t="str">
+        <f t="shared" si="1"/>
+        <v>Crawford Scad</v>
+      </c>
+      <c r="Q63" t="str">
+        <f t="shared" si="2"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" t="str">
         <f t="shared" si="0"/>
-        <v>Crawford Scad</v>
-      </c>
-      <c r="Q63" t="str">
-        <f t="shared" si="1"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="8" t="str">
-        <f>CONCATENATE(B64,C64)</f>
         <v>VT01249</v>
       </c>
       <c r="B64" t="s">
         <v>1111</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" t="s">
         <v>1172</v>
       </c>
       <c r="D64" t="s">
@@ -16049,23 +16045,23 @@
         <v>15</v>
       </c>
       <c r="P64" t="str">
+        <f t="shared" si="1"/>
+        <v>Brendan Edgeller</v>
+      </c>
+      <c r="Q64" t="str">
+        <f t="shared" si="2"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" t="str">
         <f t="shared" si="0"/>
-        <v>Brendan Edgeller</v>
-      </c>
-      <c r="Q64" t="str">
-        <f t="shared" si="1"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="str">
-        <f>CONCATENATE(B65,C65)</f>
         <v>PR00576</v>
       </c>
       <c r="B65" t="s">
         <v>1106</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" t="s">
         <v>1173</v>
       </c>
       <c r="D65" t="s">
@@ -16105,23 +16101,23 @@
         <v>860</v>
       </c>
       <c r="P65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Lion Adcock</v>
       </c>
       <c r="Q65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="8" t="str">
-        <f>CONCATENATE(B66,C66)</f>
+      <c r="A66" t="str">
+        <f t="shared" ref="A66:A129" si="3">CONCATENATE(B66,C66)</f>
         <v>VT02260</v>
       </c>
       <c r="B66" t="s">
         <v>1111</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" t="s">
         <v>1174</v>
       </c>
       <c r="D66" t="s">
@@ -16161,23 +16157,23 @@
         <v>859</v>
       </c>
       <c r="P66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Rhiamon Mollison</v>
       </c>
       <c r="Q66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" s="8" t="str">
-        <f>CONCATENATE(B67,C67)</f>
+      <c r="A67" t="str">
+        <f t="shared" si="3"/>
         <v>TN02883</v>
       </c>
       <c r="B67" t="s">
         <v>1113</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" t="s">
         <v>1175</v>
       </c>
       <c r="D67" t="s">
@@ -16217,23 +16213,23 @@
         <v>860</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P130" si="2">TRIM(D67)</f>
+        <f t="shared" ref="P67:P130" si="4">TRIM(D67)</f>
         <v>Iain Wiburn</v>
       </c>
       <c r="Q67" t="str">
-        <f t="shared" ref="Q67:Q130" si="3">IF(I67&lt;1,"PART TIME","FULL TIME")</f>
+        <f t="shared" ref="Q67:Q130" si="5">IF(I67&lt;1,"PART TIME","FULL TIME")</f>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" s="8" t="str">
-        <f>CONCATENATE(B68,C68)</f>
+      <c r="A68" t="str">
+        <f t="shared" si="3"/>
         <v>SQ03024</v>
       </c>
       <c r="B68" t="s">
         <v>1109</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" t="s">
         <v>1176</v>
       </c>
       <c r="D68" t="s">
@@ -16273,23 +16269,23 @@
         <v>1096</v>
       </c>
       <c r="P68" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Inge Creer</v>
       </c>
       <c r="Q68" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="8" t="str">
-        <f>CONCATENATE(B69,C69)</f>
         <v>TN04428</v>
       </c>
       <c r="B69" t="s">
         <v>1113</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" t="s">
         <v>1177</v>
       </c>
       <c r="D69" t="s">
@@ -16329,23 +16325,23 @@
         <v>1096</v>
       </c>
       <c r="P69" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Tadio Audritt</v>
       </c>
       <c r="Q69" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="8" t="str">
-        <f>CONCATENATE(B70,C70)</f>
         <v>SQ03350</v>
       </c>
       <c r="B70" t="s">
         <v>1109</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" t="s">
         <v>1178</v>
       </c>
       <c r="D70" t="s">
@@ -16385,23 +16381,23 @@
         <v>859</v>
       </c>
       <c r="P70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Felice McMurty</v>
       </c>
       <c r="Q70" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="8" t="str">
-        <f>CONCATENATE(B71,C71)</f>
         <v>VT03421</v>
       </c>
       <c r="B71" t="s">
         <v>1111</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" t="s">
         <v>1179</v>
       </c>
       <c r="D71" t="s">
@@ -16441,23 +16437,23 @@
         <v>1097</v>
       </c>
       <c r="P71" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Alic Bagg</v>
       </c>
       <c r="Q71" t="str">
+        <f t="shared" si="5"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" t="str">
         <f t="shared" si="3"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="8" t="str">
-        <f>CONCATENATE(B72,C72)</f>
         <v>PR01346</v>
       </c>
       <c r="B72" t="s">
         <v>1106</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" t="s">
         <v>1180</v>
       </c>
       <c r="D72" t="s">
@@ -16497,23 +16493,23 @@
         <v>1097</v>
       </c>
       <c r="P72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Adolph McNalley</v>
       </c>
       <c r="Q72" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73" s="8" t="str">
-        <f>CONCATENATE(B73,C73)</f>
         <v>VT02118</v>
       </c>
       <c r="B73" t="s">
         <v>1111</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" t="s">
         <v>1181</v>
       </c>
       <c r="D73" t="s">
@@ -16553,23 +16549,23 @@
         <v>860</v>
       </c>
       <c r="P73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Northrop Reid</v>
       </c>
       <c r="Q73" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A74" s="8" t="str">
-        <f>CONCATENATE(B74,C74)</f>
         <v>PR00210</v>
       </c>
       <c r="B74" t="s">
         <v>1106</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" t="s">
         <v>1182</v>
       </c>
       <c r="D74" t="s">
@@ -16607,23 +16603,23 @@
         <v>1096</v>
       </c>
       <c r="P74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Marquita Liquorish</v>
       </c>
       <c r="Q74" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A75" s="8" t="str">
-        <f>CONCATENATE(B75,C75)</f>
         <v>TN02496</v>
       </c>
       <c r="B75" t="s">
         <v>1113</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" t="s">
         <v>1183</v>
       </c>
       <c r="D75" t="s">
@@ -16663,23 +16659,23 @@
         <v>1099</v>
       </c>
       <c r="P75" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Anjanette Ferre</v>
       </c>
       <c r="Q75" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A76" s="8" t="str">
-        <f>CONCATENATE(B76,C76)</f>
         <v>VT02491</v>
       </c>
       <c r="B76" t="s">
         <v>1111</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" t="s">
         <v>1184</v>
       </c>
       <c r="D76" t="s">
@@ -16719,23 +16715,23 @@
         <v>1096</v>
       </c>
       <c r="P76" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Alexis Gotfrey</v>
       </c>
       <c r="Q76" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A77" s="8" t="str">
-        <f>CONCATENATE(B77,C77)</f>
         <v>PR03980</v>
       </c>
       <c r="B77" t="s">
         <v>1106</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" t="s">
         <v>1185</v>
       </c>
       <c r="D77" t="s">
@@ -16775,23 +16771,23 @@
         <v>1097</v>
       </c>
       <c r="P77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Kath Bletsoe</v>
       </c>
       <c r="Q77" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A78" s="8" t="str">
-        <f>CONCATENATE(B78,C78)</f>
         <v>VT03307</v>
       </c>
       <c r="B78" t="s">
         <v>1111</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" t="s">
         <v>1186</v>
       </c>
       <c r="D78" t="s">
@@ -16828,23 +16824,23 @@
         <v>15</v>
       </c>
       <c r="P78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Tallie Chaikovski</v>
       </c>
       <c r="Q78" t="str">
+        <f t="shared" si="5"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79" t="str">
         <f t="shared" si="3"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A79" s="8" t="str">
-        <f>CONCATENATE(B79,C79)</f>
         <v>TN04058</v>
       </c>
       <c r="B79" t="s">
         <v>1113</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" t="s">
         <v>1187</v>
       </c>
       <c r="D79" t="s">
@@ -16884,23 +16880,23 @@
         <v>860</v>
       </c>
       <c r="P79" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Bari Toffano</v>
       </c>
       <c r="Q79" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A80" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A80" s="8" t="str">
-        <f>CONCATENATE(B80,C80)</f>
         <v>VT03993</v>
       </c>
       <c r="B80" t="s">
         <v>1111</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" t="s">
         <v>1188</v>
       </c>
       <c r="D80" t="s">
@@ -16940,23 +16936,23 @@
         <v>1098</v>
       </c>
       <c r="P80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Dulce Colbeck</v>
       </c>
       <c r="Q80" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A81" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A81" s="8" t="str">
-        <f>CONCATENATE(B81,C81)</f>
         <v>VT02663</v>
       </c>
       <c r="B81" t="s">
         <v>1111</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" t="s">
         <v>1189</v>
       </c>
       <c r="D81" t="s">
@@ -16996,23 +16992,23 @@
         <v>1099</v>
       </c>
       <c r="P81" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Ignacius Losel</v>
       </c>
       <c r="Q81" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A82" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A82" s="8" t="str">
-        <f>CONCATENATE(B82,C82)</f>
         <v>PR03034</v>
       </c>
       <c r="B82" t="s">
         <v>1106</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" t="s">
         <v>1190</v>
       </c>
       <c r="D82" t="s">
@@ -17052,23 +17048,23 @@
         <v>860</v>
       </c>
       <c r="P82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Estell Kingsland</v>
       </c>
       <c r="Q82" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A83" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A83" s="8" t="str">
-        <f>CONCATENATE(B83,C83)</f>
         <v>PR01159</v>
       </c>
       <c r="B83" t="s">
         <v>1106</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" t="s">
         <v>1191</v>
       </c>
       <c r="D83" t="s">
@@ -17108,23 +17104,23 @@
         <v>859</v>
       </c>
       <c r="P83" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Mollie Hanway</v>
       </c>
       <c r="Q83" t="str">
+        <f t="shared" si="5"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A84" t="str">
         <f t="shared" si="3"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A84" s="8" t="str">
-        <f>CONCATENATE(B84,C84)</f>
         <v>SQ03476</v>
       </c>
       <c r="B84" t="s">
         <v>1109</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" t="s">
         <v>1192</v>
       </c>
       <c r="D84" t="s">
@@ -17164,23 +17160,23 @@
         <v>1099</v>
       </c>
       <c r="P84" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Inger Andriveaux</v>
       </c>
       <c r="Q84" t="str">
+        <f t="shared" si="5"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A85" t="str">
         <f t="shared" si="3"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A85" s="8" t="str">
-        <f>CONCATENATE(B85,C85)</f>
         <v>PR04380</v>
       </c>
       <c r="B85" t="s">
         <v>1106</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" t="s">
         <v>1193</v>
       </c>
       <c r="D85" t="s">
@@ -17220,23 +17216,23 @@
         <v>1097</v>
       </c>
       <c r="P85" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Van Tuxwell</v>
       </c>
       <c r="Q85" t="str">
+        <f t="shared" si="5"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A86" t="str">
         <f t="shared" si="3"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A86" s="8" t="str">
-        <f>CONCATENATE(B86,C86)</f>
         <v>TN00182</v>
       </c>
       <c r="B86" t="s">
         <v>1113</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" t="s">
         <v>1194</v>
       </c>
       <c r="D86" t="s">
@@ -17273,23 +17269,23 @@
         <v>15</v>
       </c>
       <c r="P86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Camilla Castle</v>
       </c>
       <c r="Q86" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A87" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A87" s="8" t="str">
-        <f>CONCATENATE(B87,C87)</f>
         <v>VT01523</v>
       </c>
       <c r="B87" t="s">
         <v>1111</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" t="s">
         <v>1195</v>
       </c>
       <c r="D87" t="s">
@@ -17326,23 +17322,23 @@
         <v>15</v>
       </c>
       <c r="P87" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Charmane Heistermann</v>
       </c>
       <c r="Q87" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A88" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A88" s="8" t="str">
-        <f>CONCATENATE(B88,C88)</f>
         <v>PR00916</v>
       </c>
       <c r="B88" t="s">
         <v>1106</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" t="s">
         <v>1196</v>
       </c>
       <c r="D88" t="s">
@@ -17379,23 +17375,23 @@
         <v>15</v>
       </c>
       <c r="P88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Inger Chapelhow</v>
       </c>
       <c r="Q88" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A89" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A89" s="8" t="str">
-        <f>CONCATENATE(B89,C89)</f>
         <v>PR01211</v>
       </c>
       <c r="B89" t="s">
         <v>1106</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" t="s">
         <v>1197</v>
       </c>
       <c r="D89" t="s">
@@ -17435,23 +17431,23 @@
         <v>1098</v>
       </c>
       <c r="P89" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Enoch Dowrey</v>
       </c>
       <c r="Q89" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A90" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A90" s="8" t="str">
-        <f>CONCATENATE(B90,C90)</f>
         <v>VT01684</v>
       </c>
       <c r="B90" t="s">
         <v>1111</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" t="s">
         <v>1198</v>
       </c>
       <c r="D90" t="s">
@@ -17491,23 +17487,23 @@
         <v>1097</v>
       </c>
       <c r="P90" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Audry Yu</v>
       </c>
       <c r="Q90" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A91" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A91" s="8" t="str">
-        <f>CONCATENATE(B91,C91)</f>
         <v>TN04740</v>
       </c>
       <c r="B91" t="s">
         <v>1113</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" t="s">
         <v>1199</v>
       </c>
       <c r="D91" t="s">
@@ -17544,23 +17540,23 @@
         <v>15</v>
       </c>
       <c r="P91" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Tristam Cuming</v>
       </c>
       <c r="Q91" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A92" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A92" s="8" t="str">
-        <f>CONCATENATE(B92,C92)</f>
         <v>TN03575</v>
       </c>
       <c r="B92" t="s">
         <v>1113</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" t="s">
         <v>1200</v>
       </c>
       <c r="D92" t="s">
@@ -17600,23 +17596,23 @@
         <v>859</v>
       </c>
       <c r="P92" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Janina Wolverson</v>
       </c>
       <c r="Q92" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A93" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A93" s="8" t="str">
-        <f>CONCATENATE(B93,C93)</f>
         <v>VT04984</v>
       </c>
       <c r="B93" t="s">
         <v>1111</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" t="s">
         <v>1201</v>
       </c>
       <c r="D93" t="s">
@@ -17653,23 +17649,23 @@
         <v>15</v>
       </c>
       <c r="P93" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Dell Molloy</v>
       </c>
       <c r="Q93" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A94" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A94" s="8" t="str">
-        <f>CONCATENATE(B94,C94)</f>
         <v>PR00095</v>
       </c>
       <c r="B94" t="s">
         <v>1106</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" t="s">
         <v>1202</v>
       </c>
       <c r="D94" t="s">
@@ -17709,23 +17705,23 @@
         <v>860</v>
       </c>
       <c r="P94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Ardella Dyment</v>
       </c>
       <c r="Q94" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A95" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A95" s="8" t="str">
-        <f>CONCATENATE(B95,C95)</f>
         <v>SQ03546</v>
       </c>
       <c r="B95" t="s">
         <v>1109</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" t="s">
         <v>1203</v>
       </c>
       <c r="D95" t="s">
@@ -17765,23 +17761,23 @@
         <v>860</v>
       </c>
       <c r="P95" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Alexandros Rackley</v>
       </c>
       <c r="Q95" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A96" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A96" s="8" t="str">
-        <f>CONCATENATE(B96,C96)</f>
         <v>VT02374</v>
       </c>
       <c r="B96" t="s">
         <v>1111</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" t="s">
         <v>1204</v>
       </c>
       <c r="D96" t="s">
@@ -17818,23 +17814,23 @@
         <v>15</v>
       </c>
       <c r="P96" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Delphine Jewis</v>
       </c>
       <c r="Q96" t="str">
+        <f t="shared" si="5"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A97" t="str">
         <f t="shared" si="3"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A97" s="8" t="str">
-        <f>CONCATENATE(B97,C97)</f>
         <v>SQ00450</v>
       </c>
       <c r="B97" t="s">
         <v>1109</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" t="s">
         <v>1205</v>
       </c>
       <c r="D97" t="s">
@@ -17871,23 +17867,23 @@
         <v>15</v>
       </c>
       <c r="P97" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Louise Lamming</v>
       </c>
       <c r="Q97" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A98" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A98" s="8" t="str">
-        <f>CONCATENATE(B98,C98)</f>
         <v>PR03804</v>
       </c>
       <c r="B98" t="s">
         <v>1106</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" t="s">
         <v>1206</v>
       </c>
       <c r="D98" t="s">
@@ -17927,23 +17923,23 @@
         <v>1099</v>
       </c>
       <c r="P98" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Vere Kulic</v>
       </c>
       <c r="Q98" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A99" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A99" s="8" t="str">
-        <f>CONCATENATE(B99,C99)</f>
         <v>SQ04488</v>
       </c>
       <c r="B99" t="s">
         <v>1109</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" t="s">
         <v>1207</v>
       </c>
       <c r="D99" t="s">
@@ -17983,23 +17979,23 @@
         <v>860</v>
       </c>
       <c r="P99" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Yanaton Wooster</v>
       </c>
       <c r="Q99" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A100" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A100" s="8" t="str">
-        <f>CONCATENATE(B100,C100)</f>
         <v>TN00735</v>
       </c>
       <c r="B100" t="s">
         <v>1113</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" t="s">
         <v>1208</v>
       </c>
       <c r="D100" t="s">
@@ -18039,23 +18035,23 @@
         <v>859</v>
       </c>
       <c r="P100" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Caresa Christer</v>
       </c>
       <c r="Q100" t="str">
+        <f t="shared" si="5"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A101" t="str">
         <f t="shared" si="3"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A101" s="8" t="str">
-        <f>CONCATENATE(B101,C101)</f>
         <v>VT01893</v>
       </c>
       <c r="B101" t="s">
         <v>1111</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" t="s">
         <v>1209</v>
       </c>
       <c r="D101" t="s">
@@ -18092,23 +18088,23 @@
         <v>15</v>
       </c>
       <c r="P101" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Lindy Guillet</v>
       </c>
       <c r="Q101" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A102" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A102" s="8" t="str">
-        <f>CONCATENATE(B102,C102)</f>
         <v>SQ02223</v>
       </c>
       <c r="B102" t="s">
         <v>1109</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" t="s">
         <v>1210</v>
       </c>
       <c r="D102" t="s">
@@ -18148,23 +18144,23 @@
         <v>859</v>
       </c>
       <c r="P102" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Pippy Shepperd</v>
       </c>
       <c r="Q102" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A103" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A103" s="8" t="str">
-        <f>CONCATENATE(B103,C103)</f>
         <v>PR02010</v>
       </c>
       <c r="B103" t="s">
         <v>1106</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" t="s">
         <v>1211</v>
       </c>
       <c r="D103" t="s">
@@ -18204,23 +18200,23 @@
         <v>860</v>
       </c>
       <c r="P103" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Eilis Pavlasek</v>
       </c>
       <c r="Q103" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A104" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A104" s="8" t="str">
-        <f>CONCATENATE(B104,C104)</f>
         <v>SQ00498</v>
       </c>
       <c r="B104" t="s">
         <v>1109</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" t="s">
         <v>1212</v>
       </c>
       <c r="D104" t="s">
@@ -18260,23 +18256,23 @@
         <v>1096</v>
       </c>
       <c r="P104" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Amery Ofer</v>
       </c>
       <c r="Q104" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A105" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A105" s="8" t="str">
-        <f>CONCATENATE(B105,C105)</f>
         <v>PR02113</v>
       </c>
       <c r="B105" t="s">
         <v>1106</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" t="s">
         <v>1213</v>
       </c>
       <c r="D105" t="s">
@@ -18313,23 +18309,23 @@
         <v>15</v>
       </c>
       <c r="P105" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Beverie Moffet</v>
       </c>
       <c r="Q105" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A106" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A106" s="8" t="str">
-        <f>CONCATENATE(B106,C106)</f>
         <v>TN00727</v>
       </c>
       <c r="B106" t="s">
         <v>1113</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" t="s">
         <v>1214</v>
       </c>
       <c r="D106" t="s">
@@ -18369,23 +18365,23 @@
         <v>1098</v>
       </c>
       <c r="P106" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Dulsea Folkes</v>
       </c>
       <c r="Q106" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A107" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A107" s="8" t="str">
-        <f>CONCATENATE(B107,C107)</f>
         <v>SQ01697</v>
       </c>
       <c r="B107" t="s">
         <v>1109</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C107" t="s">
         <v>1215</v>
       </c>
       <c r="D107" t="s">
@@ -18425,23 +18421,23 @@
         <v>860</v>
       </c>
       <c r="P107" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Frasier Straw</v>
       </c>
       <c r="Q107" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A108" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A108" s="8" t="str">
-        <f>CONCATENATE(B108,C108)</f>
         <v>SQ01519</v>
       </c>
       <c r="B108" t="s">
         <v>1109</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C108" t="s">
         <v>1216</v>
       </c>
       <c r="D108" t="s">
@@ -18478,23 +18474,23 @@
         <v>15</v>
       </c>
       <c r="P108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Caron Kolakovic</v>
       </c>
       <c r="Q108" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A109" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A109" s="8" t="str">
-        <f>CONCATENATE(B109,C109)</f>
         <v>VT03500</v>
       </c>
       <c r="B109" t="s">
         <v>1111</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C109" t="s">
         <v>1217</v>
       </c>
       <c r="D109" t="s">
@@ -18534,23 +18530,23 @@
         <v>1099</v>
       </c>
       <c r="P109" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Floyd Cowgill</v>
       </c>
       <c r="Q109" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A110" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A110" s="8" t="str">
-        <f>CONCATENATE(B110,C110)</f>
         <v>SQ01962</v>
       </c>
       <c r="B110" t="s">
         <v>1109</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C110" t="s">
         <v>1218</v>
       </c>
       <c r="D110" t="s">
@@ -18587,23 +18583,23 @@
         <v>15</v>
       </c>
       <c r="P110" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Lezlie Philcott</v>
       </c>
       <c r="Q110" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A111" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A111" s="8" t="str">
-        <f>CONCATENATE(B111,C111)</f>
         <v>VT00017</v>
       </c>
       <c r="B111" t="s">
         <v>1111</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C111" t="s">
         <v>1219</v>
       </c>
       <c r="D111" t="s">
@@ -18641,23 +18637,23 @@
         <v>1097</v>
       </c>
       <c r="P111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Maible Azemar</v>
       </c>
       <c r="Q111" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A112" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A112" s="8" t="str">
-        <f>CONCATENATE(B112,C112)</f>
         <v>TN01210</v>
       </c>
       <c r="B112" t="s">
         <v>1113</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C112" t="s">
         <v>1220</v>
       </c>
       <c r="D112" t="s">
@@ -18694,23 +18690,23 @@
         <v>15</v>
       </c>
       <c r="P112" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Alyosha Riquet</v>
       </c>
       <c r="Q112" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A113" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A113" s="8" t="str">
-        <f>CONCATENATE(B113,C113)</f>
         <v>SQ02051</v>
       </c>
       <c r="B113" t="s">
         <v>1109</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C113" t="s">
         <v>1221</v>
       </c>
       <c r="D113" t="s">
@@ -18750,23 +18746,23 @@
         <v>1099</v>
       </c>
       <c r="P113" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Dave Lacoste</v>
       </c>
       <c r="Q113" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A114" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A114" s="8" t="str">
-        <f>CONCATENATE(B114,C114)</f>
         <v>SQ03321</v>
       </c>
       <c r="B114" t="s">
         <v>1109</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C114" t="s">
         <v>1222</v>
       </c>
       <c r="D114" t="s">
@@ -18803,23 +18799,23 @@
         <v>15</v>
       </c>
       <c r="P114" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Gradey Litton</v>
       </c>
       <c r="Q114" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A115" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A115" s="8" t="str">
-        <f>CONCATENATE(B115,C115)</f>
         <v>SQ04603</v>
       </c>
       <c r="B115" t="s">
         <v>1109</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C115" t="s">
         <v>1223</v>
       </c>
       <c r="D115" t="s">
@@ -18856,23 +18852,23 @@
         <v>15</v>
       </c>
       <c r="P115" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Natalee Craiker</v>
       </c>
       <c r="Q115" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A116" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A116" s="8" t="str">
-        <f>CONCATENATE(B116,C116)</f>
         <v>TN01028</v>
       </c>
       <c r="B116" t="s">
         <v>1113</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C116" t="s">
         <v>1224</v>
       </c>
       <c r="D116" t="s">
@@ -18912,23 +18908,23 @@
         <v>1097</v>
       </c>
       <c r="P116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Alicea Pudsall</v>
       </c>
       <c r="Q116" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A117" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A117" s="8" t="str">
-        <f>CONCATENATE(B117,C117)</f>
         <v>VT04028</v>
       </c>
       <c r="B117" t="s">
         <v>1111</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C117" t="s">
         <v>1225</v>
       </c>
       <c r="D117" t="s">
@@ -18965,23 +18961,23 @@
         <v>15</v>
       </c>
       <c r="P117" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Michale Rolf</v>
       </c>
       <c r="Q117" t="str">
+        <f t="shared" si="5"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A118" t="str">
         <f t="shared" si="3"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A118" s="8" t="str">
-        <f>CONCATENATE(B118,C118)</f>
         <v>TN03068</v>
       </c>
       <c r="B118" t="s">
         <v>1113</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C118" t="s">
         <v>1226</v>
       </c>
       <c r="D118" t="s">
@@ -19021,23 +19017,23 @@
         <v>1099</v>
       </c>
       <c r="P118" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Dare Tully</v>
       </c>
       <c r="Q118" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A119" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A119" s="8" t="str">
-        <f>CONCATENATE(B119,C119)</f>
         <v>VT03701</v>
       </c>
       <c r="B119" t="s">
         <v>1111</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C119" t="s">
         <v>1227</v>
       </c>
       <c r="D119" t="s">
@@ -19077,23 +19073,23 @@
         <v>1099</v>
       </c>
       <c r="P119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Richy Gray</v>
       </c>
       <c r="Q119" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A120" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A120" s="8" t="str">
-        <f>CONCATENATE(B120,C120)</f>
         <v>TN04101</v>
       </c>
       <c r="B120" t="s">
         <v>1113</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="C120" t="s">
         <v>1228</v>
       </c>
       <c r="D120" t="s">
@@ -19133,23 +19129,23 @@
         <v>1096</v>
       </c>
       <c r="P120" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Marline Wahncke</v>
       </c>
       <c r="Q120" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A121" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A121" s="8" t="str">
-        <f>CONCATENATE(B121,C121)</f>
         <v>TN01632</v>
       </c>
       <c r="B121" t="s">
         <v>1113</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="C121" t="s">
         <v>1229</v>
       </c>
       <c r="D121" t="s">
@@ -19189,23 +19185,23 @@
         <v>1097</v>
       </c>
       <c r="P121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Katya Hundy</v>
       </c>
       <c r="Q121" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A122" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A122" s="8" t="str">
-        <f>CONCATENATE(B122,C122)</f>
         <v>PR01956</v>
       </c>
       <c r="B122" t="s">
         <v>1106</v>
       </c>
-      <c r="C122" s="8" t="s">
+      <c r="C122" t="s">
         <v>1230</v>
       </c>
       <c r="D122" t="s">
@@ -19242,23 +19238,23 @@
         <v>15</v>
       </c>
       <c r="P122" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Jamesy O'Ferris</v>
       </c>
       <c r="Q122" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A123" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A123" s="8" t="str">
-        <f>CONCATENATE(B123,C123)</f>
         <v>PR02140</v>
       </c>
       <c r="B123" t="s">
         <v>1106</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C123" t="s">
         <v>1231</v>
       </c>
       <c r="D123" t="s">
@@ -19298,23 +19294,23 @@
         <v>860</v>
       </c>
       <c r="P123" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Fanchon Furney</v>
       </c>
       <c r="Q123" t="str">
+        <f t="shared" si="5"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A124" t="str">
         <f t="shared" si="3"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A124" s="8" t="str">
-        <f>CONCATENATE(B124,C124)</f>
         <v>SQ03626</v>
       </c>
       <c r="B124" t="s">
         <v>1109</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C124" t="s">
         <v>1232</v>
       </c>
       <c r="D124" t="s">
@@ -19354,23 +19350,23 @@
         <v>1099</v>
       </c>
       <c r="P124" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Easter Pyke</v>
       </c>
       <c r="Q124" t="str">
+        <f t="shared" si="5"/>
+        <v>PART TIME</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A125" t="str">
         <f t="shared" si="3"/>
-        <v>PART TIME</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A125" s="8" t="str">
-        <f>CONCATENATE(B125,C125)</f>
         <v>VT01610</v>
       </c>
       <c r="B125" t="s">
         <v>1111</v>
       </c>
-      <c r="C125" s="8" t="s">
+      <c r="C125" t="s">
         <v>1233</v>
       </c>
       <c r="D125" t="s">
@@ -19410,23 +19406,23 @@
         <v>860</v>
       </c>
       <c r="P125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Gilles Jaquet</v>
       </c>
       <c r="Q125" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A126" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A126" s="8" t="str">
-        <f>CONCATENATE(B126,C126)</f>
         <v>TN00129</v>
       </c>
       <c r="B126" t="s">
         <v>1113</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C126" t="s">
         <v>1234</v>
       </c>
       <c r="D126" t="s">
@@ -19464,23 +19460,23 @@
         <v>1098</v>
       </c>
       <c r="P126" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Grazia Bunkle</v>
       </c>
       <c r="Q126" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A127" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A127" s="8" t="str">
-        <f>CONCATENATE(B127,C127)</f>
         <v>TN01340</v>
       </c>
       <c r="B127" t="s">
         <v>1113</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C127" t="s">
         <v>1235</v>
       </c>
       <c r="D127" t="s">
@@ -19517,23 +19513,23 @@
         <v>15</v>
       </c>
       <c r="P127" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Granny Spencelayh</v>
       </c>
       <c r="Q127" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A128" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A128" s="8" t="str">
-        <f>CONCATENATE(B128,C128)</f>
         <v>TN00698</v>
       </c>
       <c r="B128" t="s">
         <v>1113</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="C128" t="s">
         <v>1236</v>
       </c>
       <c r="D128" t="s">
@@ -19570,23 +19566,23 @@
         <v>15</v>
       </c>
       <c r="P128" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Barbara-anne Kenchington</v>
       </c>
       <c r="Q128" t="str">
+        <f t="shared" si="5"/>
+        <v>FULL TIME</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A129" t="str">
         <f t="shared" si="3"/>
-        <v>FULL TIME</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A129" s="8" t="str">
-        <f>CONCATENATE(B129,C129)</f>
         <v>SQ00960</v>
       </c>
       <c r="B129" t="s">
         <v>1109</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="C129" t="s">
         <v>1237</v>
       </c>
       <c r="D129" t="s">
@@ -19626,23 +19622,23 @@
         <v>859</v>
       </c>
       <c r="P129" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Calvin O'Carroll</v>
       </c>
       <c r="Q129" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>PART TIME</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A130" s="8" t="str">
-        <f>CONCATENATE(B130,C130)</f>
+      <c r="A130" t="str">
+        <f t="shared" ref="A130:A193" si="6">CONCATENATE(B130,C130)</f>
         <v>SQ01998</v>
       </c>
       <c r="B130" t="s">
         <v>1109</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C130" t="s">
         <v>1238</v>
       </c>
       <c r="D130" t="s">
@@ -19682,23 +19678,23 @@
         <v>1099</v>
       </c>
       <c r="P130" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Layton Crayden</v>
       </c>
       <c r="Q130" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A131" s="8" t="str">
-        <f>CONCATENATE(B131,C131)</f>
+      <c r="A131" t="str">
+        <f t="shared" si="6"/>
         <v>PR04446</v>
       </c>
       <c r="B131" t="s">
         <v>1106</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="C131" t="s">
         <v>1239</v>
       </c>
       <c r="D131" t="s">
@@ -19738,23 +19734,23 @@
         <v>860</v>
       </c>
       <c r="P131" t="str">
-        <f t="shared" ref="P131:P194" si="4">TRIM(D131)</f>
+        <f t="shared" ref="P131:P194" si="7">TRIM(D131)</f>
         <v>Giffer Berlin</v>
       </c>
       <c r="Q131" t="str">
-        <f t="shared" ref="Q131:Q194" si="5">IF(I131&lt;1,"PART TIME","FULL TIME")</f>
+        <f t="shared" ref="Q131:Q194" si="8">IF(I131&lt;1,"PART TIME","FULL TIME")</f>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A132" s="8" t="str">
-        <f>CONCATENATE(B132,C132)</f>
+      <c r="A132" t="str">
+        <f t="shared" si="6"/>
         <v>SQ01283</v>
       </c>
       <c r="B132" t="s">
         <v>1109</v>
       </c>
-      <c r="C132" s="8" t="s">
+      <c r="C132" t="s">
         <v>1240</v>
       </c>
       <c r="D132" t="s">
@@ -19794,23 +19790,23 @@
         <v>1098</v>
       </c>
       <c r="P132" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Barr Faughny</v>
       </c>
       <c r="Q132" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A133" s="8" t="str">
-        <f>CONCATENATE(B133,C133)</f>
+      <c r="A133" t="str">
+        <f t="shared" si="6"/>
         <v>SQ01026</v>
       </c>
       <c r="B133" t="s">
         <v>1109</v>
       </c>
-      <c r="C133" s="8" t="s">
+      <c r="C133" t="s">
         <v>1241</v>
       </c>
       <c r="D133" t="s">
@@ -19850,23 +19846,23 @@
         <v>860</v>
       </c>
       <c r="P133" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Faun Rickeard</v>
       </c>
       <c r="Q133" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A134" s="8" t="str">
-        <f>CONCATENATE(B134,C134)</f>
+      <c r="A134" t="str">
+        <f t="shared" si="6"/>
         <v>TN01912</v>
       </c>
       <c r="B134" t="s">
         <v>1113</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="C134" t="s">
         <v>1242</v>
       </c>
       <c r="D134" t="s">
@@ -19906,23 +19902,23 @@
         <v>859</v>
       </c>
       <c r="P134" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Fred Dudeney</v>
       </c>
       <c r="Q134" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A135" s="8" t="str">
-        <f>CONCATENATE(B135,C135)</f>
+      <c r="A135" t="str">
+        <f t="shared" si="6"/>
         <v>VT02319</v>
       </c>
       <c r="B135" t="s">
         <v>1111</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="C135" t="s">
         <v>1243</v>
       </c>
       <c r="D135" t="s">
@@ -19962,23 +19958,23 @@
         <v>860</v>
       </c>
       <c r="P135" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Aluin Churly</v>
       </c>
       <c r="Q135" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>PART TIME</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A136" s="8" t="str">
-        <f>CONCATENATE(B136,C136)</f>
+      <c r="A136" t="str">
+        <f t="shared" si="6"/>
         <v>SQ04960</v>
       </c>
       <c r="B136" t="s">
         <v>1109</v>
       </c>
-      <c r="C136" s="8" t="s">
+      <c r="C136" t="s">
         <v>1244</v>
       </c>
       <c r="D136" t="s">
@@ -20018,23 +20014,23 @@
         <v>1099</v>
       </c>
       <c r="P136" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Gilda Richen</v>
       </c>
       <c r="Q136" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A137" s="8" t="str">
-        <f>CONCATENATE(B137,C137)</f>
+      <c r="A137" t="str">
+        <f t="shared" si="6"/>
         <v>SQ01829</v>
       </c>
       <c r="B137" t="s">
         <v>1109</v>
       </c>
-      <c r="C137" s="8" t="s">
+      <c r="C137" t="s">
         <v>1245</v>
       </c>
       <c r="D137" t="s">
@@ -20071,23 +20067,23 @@
         <v>15</v>
       </c>
       <c r="P137" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Mabel Orrow</v>
       </c>
       <c r="Q137" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A138" s="8" t="str">
-        <f>CONCATENATE(B138,C138)</f>
+      <c r="A138" t="str">
+        <f t="shared" si="6"/>
         <v>SQ00022</v>
       </c>
       <c r="B138" t="s">
         <v>1109</v>
       </c>
-      <c r="C138" s="8" t="s">
+      <c r="C138" t="s">
         <v>1246</v>
       </c>
       <c r="D138" t="s">
@@ -20127,23 +20123,23 @@
         <v>1097</v>
       </c>
       <c r="P138" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Carlin Demke</v>
       </c>
       <c r="Q138" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A139" s="8" t="str">
-        <f>CONCATENATE(B139,C139)</f>
+      <c r="A139" t="str">
+        <f t="shared" si="6"/>
         <v>TN02798</v>
       </c>
       <c r="B139" t="s">
         <v>1113</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C139" t="s">
         <v>1247</v>
       </c>
       <c r="D139" t="s">
@@ -20183,23 +20179,23 @@
         <v>860</v>
       </c>
       <c r="P139" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Thorvald Milliken</v>
       </c>
       <c r="Q139" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>PART TIME</v>
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A140" s="8" t="str">
-        <f>CONCATENATE(B140,C140)</f>
+      <c r="A140" t="str">
+        <f t="shared" si="6"/>
         <v>VT02532</v>
       </c>
       <c r="B140" t="s">
         <v>1111</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="C140" t="s">
         <v>1248</v>
       </c>
       <c r="D140" t="s">
@@ -20236,23 +20232,23 @@
         <v>15</v>
       </c>
       <c r="P140" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Adey Ryal</v>
       </c>
       <c r="Q140" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A141" s="8" t="str">
-        <f>CONCATENATE(B141,C141)</f>
+      <c r="A141" t="str">
+        <f t="shared" si="6"/>
         <v>PR02321</v>
       </c>
       <c r="B141" t="s">
         <v>1106</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="C141" t="s">
         <v>1249</v>
       </c>
       <c r="D141" t="s">
@@ -20292,23 +20288,23 @@
         <v>1098</v>
       </c>
       <c r="P141" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Evanne Sheryn</v>
       </c>
       <c r="Q141" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A142" s="8" t="str">
-        <f>CONCATENATE(B142,C142)</f>
+      <c r="A142" t="str">
+        <f t="shared" si="6"/>
         <v>SQ03116</v>
       </c>
       <c r="B142" t="s">
         <v>1109</v>
       </c>
-      <c r="C142" s="8" t="s">
+      <c r="C142" t="s">
         <v>1250</v>
       </c>
       <c r="D142" t="s">
@@ -20345,23 +20341,23 @@
         <v>15</v>
       </c>
       <c r="P142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Syd Fearn</v>
       </c>
       <c r="Q142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A143" s="8" t="str">
-        <f>CONCATENATE(B143,C143)</f>
+      <c r="A143" t="str">
+        <f t="shared" si="6"/>
         <v>SQ02638</v>
       </c>
       <c r="B143" t="s">
         <v>1109</v>
       </c>
-      <c r="C143" s="8" t="s">
+      <c r="C143" t="s">
         <v>1251</v>
       </c>
       <c r="D143" t="s">
@@ -20401,23 +20397,23 @@
         <v>859</v>
       </c>
       <c r="P143" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Cara Havers</v>
       </c>
       <c r="Q143" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A144" s="8" t="str">
-        <f>CONCATENATE(B144,C144)</f>
+      <c r="A144" t="str">
+        <f t="shared" si="6"/>
         <v>VT03704</v>
       </c>
       <c r="B144" t="s">
         <v>1111</v>
       </c>
-      <c r="C144" s="8" t="s">
+      <c r="C144" t="s">
         <v>1252</v>
       </c>
       <c r="D144" t="s">
@@ -20457,23 +20453,23 @@
         <v>1096</v>
       </c>
       <c r="P144" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Egor Minto</v>
       </c>
       <c r="Q144" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A145" s="8" t="str">
-        <f>CONCATENATE(B145,C145)</f>
+      <c r="A145" t="str">
+        <f t="shared" si="6"/>
         <v>VT04552</v>
       </c>
       <c r="B145" t="s">
         <v>1111</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="C145" t="s">
         <v>1253</v>
       </c>
       <c r="D145" t="s">
@@ -20513,23 +20509,23 @@
         <v>1097</v>
       </c>
       <c r="P145" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Theresita Chasmer</v>
       </c>
       <c r="Q145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A146" s="8" t="str">
-        <f>CONCATENATE(B146,C146)</f>
+      <c r="A146" t="str">
+        <f t="shared" si="6"/>
         <v>SQ04665</v>
       </c>
       <c r="B146" t="s">
         <v>1109</v>
       </c>
-      <c r="C146" s="8" t="s">
+      <c r="C146" t="s">
         <v>1254</v>
       </c>
       <c r="D146" t="s">
@@ -20569,23 +20565,23 @@
         <v>1098</v>
       </c>
       <c r="P146" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Collin Jagson</v>
       </c>
       <c r="Q146" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A147" s="8" t="str">
-        <f>CONCATENATE(B147,C147)</f>
+      <c r="A147" t="str">
+        <f t="shared" si="6"/>
         <v>VT00336</v>
       </c>
       <c r="B147" t="s">
         <v>1111</v>
       </c>
-      <c r="C147" s="8" t="s">
+      <c r="C147" t="s">
         <v>1255</v>
       </c>
       <c r="D147" t="s">
@@ -20625,23 +20621,23 @@
         <v>1099</v>
       </c>
       <c r="P147" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Giselbert Newlands</v>
       </c>
       <c r="Q147" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>PART TIME</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A148" s="8" t="str">
-        <f>CONCATENATE(B148,C148)</f>
+      <c r="A148" t="str">
+        <f t="shared" si="6"/>
         <v>PR03271</v>
       </c>
       <c r="B148" t="s">
         <v>1106</v>
       </c>
-      <c r="C148" s="8" t="s">
+      <c r="C148" t="s">
         <v>1256</v>
       </c>
       <c r="D148" t="s">
@@ -20678,23 +20674,23 @@
         <v>15</v>
       </c>
       <c r="P148" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Stan Tolliday</v>
       </c>
       <c r="Q148" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>PART TIME</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A149" s="8" t="str">
-        <f>CONCATENATE(B149,C149)</f>
+      <c r="A149" t="str">
+        <f t="shared" si="6"/>
         <v>VT01101</v>
       </c>
       <c r="B149" t="s">
         <v>1111</v>
       </c>
-      <c r="C149" s="8" t="s">
+      <c r="C149" t="s">
         <v>1257</v>
       </c>
       <c r="D149" t="s">
@@ -20734,23 +20730,23 @@
         <v>859</v>
       </c>
       <c r="P149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Adela Dowsett</v>
       </c>
       <c r="Q149" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A150" s="8" t="str">
-        <f>CONCATENATE(B150,C150)</f>
+      <c r="A150" t="str">
+        <f t="shared" si="6"/>
         <v>TN04660</v>
       </c>
       <c r="B150" t="s">
         <v>1113</v>
       </c>
-      <c r="C150" s="8" t="s">
+      <c r="C150" t="s">
         <v>1258</v>
       </c>
       <c r="D150" t="s">
@@ -20790,23 +20786,23 @@
         <v>859</v>
       </c>
       <c r="P150" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Thedrick Bothwell</v>
       </c>
       <c r="Q150" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A151" s="8" t="str">
-        <f>CONCATENATE(B151,C151)</f>
+      <c r="A151" t="str">
+        <f t="shared" si="6"/>
         <v>VT00596</v>
       </c>
       <c r="B151" t="s">
         <v>1111</v>
       </c>
-      <c r="C151" s="8" t="s">
+      <c r="C151" t="s">
         <v>1259</v>
       </c>
       <c r="D151" t="s">
@@ -20846,23 +20842,23 @@
         <v>859</v>
       </c>
       <c r="P151" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Letisha Carrett</v>
       </c>
       <c r="Q151" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A152" s="8" t="str">
-        <f>CONCATENATE(B152,C152)</f>
+      <c r="A152" t="str">
+        <f t="shared" si="6"/>
         <v>VT03552</v>
       </c>
       <c r="B152" t="s">
         <v>1111</v>
       </c>
-      <c r="C152" s="8" t="s">
+      <c r="C152" t="s">
         <v>1260</v>
       </c>
       <c r="D152" t="s">
@@ -20902,23 +20898,23 @@
         <v>860</v>
       </c>
       <c r="P152" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Karyn Creeghan</v>
       </c>
       <c r="Q152" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A153" s="8" t="str">
-        <f>CONCATENATE(B153,C153)</f>
+      <c r="A153" t="str">
+        <f t="shared" si="6"/>
         <v>TN00083</v>
       </c>
       <c r="B153" t="s">
         <v>1113</v>
       </c>
-      <c r="C153" s="8" t="s">
+      <c r="C153" t="s">
         <v>1261</v>
       </c>
       <c r="D153" t="s">
@@ -20958,23 +20954,23 @@
         <v>1099</v>
       </c>
       <c r="P153" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Tammi Lackham</v>
       </c>
       <c r="Q153" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>PART TIME</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A154" s="8" t="str">
-        <f>CONCATENATE(B154,C154)</f>
+      <c r="A154" t="str">
+        <f t="shared" si="6"/>
         <v>TN01389</v>
       </c>
       <c r="B154" t="s">
         <v>1113</v>
       </c>
-      <c r="C154" s="8" t="s">
+      <c r="C154" t="s">
         <v>1262</v>
       </c>
       <c r="D154" t="s">
@@ -21012,23 +21008,23 @@
         <v>859</v>
       </c>
       <c r="P154" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Shantee D'Antonio</v>
       </c>
       <c r="Q154" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A155" s="8" t="str">
-        <f>CONCATENATE(B155,C155)</f>
+      <c r="A155" t="str">
+        <f t="shared" si="6"/>
         <v>SQ02643</v>
       </c>
       <c r="B155" t="s">
         <v>1109</v>
       </c>
-      <c r="C155" s="8" t="s">
+      <c r="C155" t="s">
         <v>1263</v>
       </c>
       <c r="D155" t="s">
@@ -21068,23 +21064,23 @@
         <v>860</v>
       </c>
       <c r="P155" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Niko MacGille</v>
       </c>
       <c r="Q155" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A156" s="8" t="str">
-        <f>CONCATENATE(B156,C156)</f>
+      <c r="A156" t="str">
+        <f t="shared" si="6"/>
         <v>TN02674</v>
       </c>
       <c r="B156" t="s">
         <v>1113</v>
       </c>
-      <c r="C156" s="8" t="s">
+      <c r="C156" t="s">
         <v>1264</v>
       </c>
       <c r="D156" t="s">
@@ -21124,23 +21120,23 @@
         <v>1098</v>
       </c>
       <c r="P156" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Antonetta Coggeshall</v>
       </c>
       <c r="Q156" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A157" s="8" t="str">
-        <f>CONCATENATE(B157,C157)</f>
+      <c r="A157" t="str">
+        <f t="shared" si="6"/>
         <v>TN02727</v>
       </c>
       <c r="B157" t="s">
         <v>1113</v>
       </c>
-      <c r="C157" s="8" t="s">
+      <c r="C157" t="s">
         <v>1265</v>
       </c>
       <c r="D157" t="s">
@@ -21180,23 +21176,23 @@
         <v>1098</v>
       </c>
       <c r="P157" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Wald Bountiff</v>
       </c>
       <c r="Q157" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A158" s="8" t="str">
-        <f>CONCATENATE(B158,C158)</f>
+      <c r="A158" t="str">
+        <f t="shared" si="6"/>
         <v>VT01323</v>
       </c>
       <c r="B158" t="s">
         <v>1111</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="C158" t="s">
         <v>1266</v>
       </c>
       <c r="D158" t="s">
@@ -21236,23 +21232,23 @@
         <v>1099</v>
       </c>
       <c r="P158" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Lissy McCoy</v>
       </c>
       <c r="Q158" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A159" s="8" t="str">
-        <f>CONCATENATE(B159,C159)</f>
+      <c r="A159" t="str">
+        <f t="shared" si="6"/>
         <v>PR03886</v>
       </c>
       <c r="B159" t="s">
         <v>1106</v>
       </c>
-      <c r="C159" s="8" t="s">
+      <c r="C159" t="s">
         <v>1267</v>
       </c>
       <c r="D159" t="s">
@@ -21292,23 +21288,23 @@
         <v>1098</v>
       </c>
       <c r="P159" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Edd MacKnockiter</v>
       </c>
       <c r="Q159" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A160" s="8" t="str">
-        <f>CONCATENATE(B160,C160)</f>
+      <c r="A160" t="str">
+        <f t="shared" si="6"/>
         <v>PR00746</v>
       </c>
       <c r="B160" t="s">
         <v>1106</v>
       </c>
-      <c r="C160" s="8" t="s">
+      <c r="C160" t="s">
         <v>1268</v>
       </c>
       <c r="D160" t="s">
@@ -21348,23 +21344,23 @@
         <v>1096</v>
       </c>
       <c r="P160" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Hogan Iles</v>
       </c>
       <c r="Q160" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A161" s="8" t="str">
-        <f>CONCATENATE(B161,C161)</f>
+      <c r="A161" t="str">
+        <f t="shared" si="6"/>
         <v>SQ03387</v>
       </c>
       <c r="B161" t="s">
         <v>1109</v>
       </c>
-      <c r="C161" s="8" t="s">
+      <c r="C161" t="s">
         <v>1269</v>
       </c>
       <c r="D161" t="s">
@@ -21404,23 +21400,23 @@
         <v>1098</v>
       </c>
       <c r="P161" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Robinia Scholling</v>
       </c>
       <c r="Q161" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A162" s="8" t="str">
-        <f>CONCATENATE(B162,C162)</f>
+      <c r="A162" t="str">
+        <f t="shared" si="6"/>
         <v>SQ00105</v>
       </c>
       <c r="B162" t="s">
         <v>1109</v>
       </c>
-      <c r="C162" s="8" t="s">
+      <c r="C162" t="s">
         <v>1270</v>
       </c>
       <c r="D162" t="s">
@@ -21460,23 +21456,23 @@
         <v>1099</v>
       </c>
       <c r="P162" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Melisa Knott</v>
       </c>
       <c r="Q162" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A163" s="8" t="str">
-        <f>CONCATENATE(B163,C163)</f>
+      <c r="A163" t="str">
+        <f t="shared" si="6"/>
         <v>SQ02424</v>
       </c>
       <c r="B163" t="s">
         <v>1109</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="C163" t="s">
         <v>1271</v>
       </c>
       <c r="D163" t="s">
@@ -21516,23 +21512,23 @@
         <v>1099</v>
       </c>
       <c r="P163" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Novelia Pyffe</v>
       </c>
       <c r="Q163" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>PART TIME</v>
       </c>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A164" s="8" t="str">
-        <f>CONCATENATE(B164,C164)</f>
+      <c r="A164" t="str">
+        <f t="shared" si="6"/>
         <v>VT01703</v>
       </c>
       <c r="B164" t="s">
         <v>1111</v>
       </c>
-      <c r="C164" s="8" t="s">
+      <c r="C164" t="s">
         <v>1272</v>
       </c>
       <c r="D164" t="s">
@@ -21572,23 +21568,23 @@
         <v>860</v>
       </c>
       <c r="P164" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Abigael Basire</v>
       </c>
       <c r="Q164" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>PART TIME</v>
       </c>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A165" s="8" t="str">
-        <f>CONCATENATE(B165,C165)</f>
+      <c r="A165" t="str">
+        <f t="shared" si="6"/>
         <v>SQ02703</v>
       </c>
       <c r="B165" t="s">
         <v>1109</v>
       </c>
-      <c r="C165" s="8" t="s">
+      <c r="C165" t="s">
         <v>1273</v>
       </c>
       <c r="D165" t="s">
@@ -21628,23 +21624,23 @@
         <v>1099</v>
       </c>
       <c r="P165" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>North Bertomeu</v>
       </c>
       <c r="Q165" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A166" s="8" t="str">
-        <f>CONCATENATE(B166,C166)</f>
+      <c r="A166" t="str">
+        <f t="shared" si="6"/>
         <v>VT04373</v>
       </c>
       <c r="B166" t="s">
         <v>1111</v>
       </c>
-      <c r="C166" s="8" t="s">
+      <c r="C166" t="s">
         <v>1274</v>
       </c>
       <c r="D166" t="s">
@@ -21681,23 +21677,23 @@
         <v>15</v>
       </c>
       <c r="P166" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Edi Hofton</v>
       </c>
       <c r="Q166" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A167" s="8" t="str">
-        <f>CONCATENATE(B167,C167)</f>
+      <c r="A167" t="str">
+        <f t="shared" si="6"/>
         <v>SQ03733</v>
       </c>
       <c r="B167" t="s">
         <v>1109</v>
       </c>
-      <c r="C167" s="8" t="s">
+      <c r="C167" t="s">
         <v>1275</v>
       </c>
       <c r="D167" t="s">
@@ -21737,23 +21733,23 @@
         <v>1096</v>
       </c>
       <c r="P167" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Revkah Antonacci</v>
       </c>
       <c r="Q167" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A168" s="8" t="str">
-        <f>CONCATENATE(B168,C168)</f>
+      <c r="A168" t="str">
+        <f t="shared" si="6"/>
         <v>VT04467</v>
       </c>
       <c r="B168" t="s">
         <v>1111</v>
       </c>
-      <c r="C168" s="8" t="s">
+      <c r="C168" t="s">
         <v>1276</v>
       </c>
       <c r="D168" t="s">
@@ -21793,23 +21789,23 @@
         <v>860</v>
       </c>
       <c r="P168" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Carolyn Attack</v>
       </c>
       <c r="Q168" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>PART TIME</v>
       </c>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A169" s="8" t="str">
-        <f>CONCATENATE(B169,C169)</f>
+      <c r="A169" t="str">
+        <f t="shared" si="6"/>
         <v>PR02016</v>
       </c>
       <c r="B169" t="s">
         <v>1106</v>
       </c>
-      <c r="C169" s="8" t="s">
+      <c r="C169" t="s">
         <v>1277</v>
       </c>
       <c r="D169" t="s">
@@ -21849,23 +21845,23 @@
         <v>1097</v>
       </c>
       <c r="P169" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Iris Wagg</v>
       </c>
       <c r="Q169" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A170" s="8" t="str">
-        <f>CONCATENATE(B170,C170)</f>
+      <c r="A170" t="str">
+        <f t="shared" si="6"/>
         <v>VT04415</v>
       </c>
       <c r="B170" t="s">
         <v>1111</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="C170" t="s">
         <v>1278</v>
       </c>
       <c r="D170" t="s">
@@ -21905,23 +21901,23 @@
         <v>1097</v>
       </c>
       <c r="P170" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Malory Biles</v>
       </c>
       <c r="Q170" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A171" s="8" t="str">
-        <f>CONCATENATE(B171,C171)</f>
+      <c r="A171" t="str">
+        <f t="shared" si="6"/>
         <v>TN04067</v>
       </c>
       <c r="B171" t="s">
         <v>1113</v>
       </c>
-      <c r="C171" s="8" t="s">
+      <c r="C171" t="s">
         <v>1279</v>
       </c>
       <c r="D171" t="s">
@@ -21961,23 +21957,23 @@
         <v>859</v>
       </c>
       <c r="P171" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Lea Chaplin</v>
       </c>
       <c r="Q171" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A172" s="8" t="str">
-        <f>CONCATENATE(B172,C172)</f>
+      <c r="A172" t="str">
+        <f t="shared" si="6"/>
         <v>TN04175</v>
       </c>
       <c r="B172" t="s">
         <v>1113</v>
       </c>
-      <c r="C172" s="8" t="s">
+      <c r="C172" t="s">
         <v>1280</v>
       </c>
       <c r="D172" t="s">
@@ -22017,23 +22013,23 @@
         <v>1097</v>
       </c>
       <c r="P172" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Hinda Label</v>
       </c>
       <c r="Q172" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A173" s="8" t="str">
-        <f>CONCATENATE(B173,C173)</f>
+      <c r="A173" t="str">
+        <f t="shared" si="6"/>
         <v>VT00687</v>
       </c>
       <c r="B173" t="s">
         <v>1111</v>
       </c>
-      <c r="C173" s="8" t="s">
+      <c r="C173" t="s">
         <v>1281</v>
       </c>
       <c r="D173" t="s">
@@ -22073,23 +22069,23 @@
         <v>860</v>
       </c>
       <c r="P173" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Adrianne Gave</v>
       </c>
       <c r="Q173" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A174" s="8" t="str">
-        <f>CONCATENATE(B174,C174)</f>
+      <c r="A174" t="str">
+        <f t="shared" si="6"/>
         <v>PR01269</v>
       </c>
       <c r="B174" t="s">
         <v>1106</v>
       </c>
-      <c r="C174" s="8" t="s">
+      <c r="C174" t="s">
         <v>1282</v>
       </c>
       <c r="D174" t="s">
@@ -22129,23 +22125,23 @@
         <v>1097</v>
       </c>
       <c r="P174" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Eleonore Airdrie</v>
       </c>
       <c r="Q174" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A175" s="8" t="str">
-        <f>CONCATENATE(B175,C175)</f>
+      <c r="A175" t="str">
+        <f t="shared" si="6"/>
         <v>TN00579</v>
       </c>
       <c r="B175" t="s">
         <v>1113</v>
       </c>
-      <c r="C175" s="8" t="s">
+      <c r="C175" t="s">
         <v>1283</v>
       </c>
       <c r="D175" t="s">
@@ -22185,23 +22181,23 @@
         <v>859</v>
       </c>
       <c r="P175" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Rafaelita Blaksland</v>
       </c>
       <c r="Q175" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>PART TIME</v>
       </c>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A176" s="8" t="str">
-        <f>CONCATENATE(B176,C176)</f>
+      <c r="A176" t="str">
+        <f t="shared" si="6"/>
         <v>TN03097</v>
       </c>
       <c r="B176" t="s">
         <v>1113</v>
       </c>
-      <c r="C176" s="8" t="s">
+      <c r="C176" t="s">
         <v>1284</v>
       </c>
       <c r="D176" t="s">
@@ -22238,23 +22234,23 @@
         <v>15</v>
       </c>
       <c r="P176" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Bendite Bloan</v>
       </c>
       <c r="Q176" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>PART TIME</v>
       </c>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A177" s="8" t="str">
-        <f>CONCATENATE(B177,C177)</f>
+      <c r="A177" t="str">
+        <f t="shared" si="6"/>
         <v>SQ02174</v>
       </c>
       <c r="B177" t="s">
         <v>1109</v>
       </c>
-      <c r="C177" s="8" t="s">
+      <c r="C177" t="s">
         <v>1285</v>
       </c>
       <c r="D177" t="s">
@@ -22294,23 +22290,23 @@
         <v>1098</v>
       </c>
       <c r="P177" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Sidoney Yitzhok</v>
       </c>
       <c r="Q177" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A178" s="8" t="str">
-        <f>CONCATENATE(B178,C178)</f>
+      <c r="A178" t="str">
+        <f t="shared" si="6"/>
         <v>PR02957</v>
       </c>
       <c r="B178" t="s">
         <v>1106</v>
       </c>
-      <c r="C178" s="8" t="s">
+      <c r="C178" t="s">
         <v>1286</v>
       </c>
       <c r="D178" t="s">
@@ -22350,23 +22346,23 @@
         <v>1096</v>
       </c>
       <c r="P178" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Vaughn Carvill</v>
       </c>
       <c r="Q178" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A179" s="8" t="str">
-        <f>CONCATENATE(B179,C179)</f>
+      <c r="A179" t="str">
+        <f t="shared" si="6"/>
         <v>TN01601</v>
       </c>
       <c r="B179" t="s">
         <v>1113</v>
       </c>
-      <c r="C179" s="8" t="s">
+      <c r="C179" t="s">
         <v>1287</v>
       </c>
       <c r="D179" t="s">
@@ -22403,23 +22399,23 @@
         <v>15</v>
       </c>
       <c r="P179" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Melva Jickells</v>
       </c>
       <c r="Q179" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>PART TIME</v>
       </c>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A180" s="8" t="str">
-        <f>CONCATENATE(B180,C180)</f>
+      <c r="A180" t="str">
+        <f t="shared" si="6"/>
         <v>SQ01730</v>
       </c>
       <c r="B180" t="s">
         <v>1109</v>
       </c>
-      <c r="C180" s="8" t="s">
+      <c r="C180" t="s">
         <v>1288</v>
       </c>
       <c r="D180" t="s">
@@ -22456,23 +22452,23 @@
         <v>15</v>
       </c>
       <c r="P180" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Austine Littlewood</v>
       </c>
       <c r="Q180" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A181" s="8" t="str">
-        <f>CONCATENATE(B181,C181)</f>
+      <c r="A181" t="str">
+        <f t="shared" si="6"/>
         <v>TN03355</v>
       </c>
       <c r="B181" t="s">
         <v>1113</v>
       </c>
-      <c r="C181" s="8" t="s">
+      <c r="C181" t="s">
         <v>1289</v>
       </c>
       <c r="D181" t="s">
@@ -22512,23 +22508,23 @@
         <v>859</v>
       </c>
       <c r="P181" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Ruby Cracie</v>
       </c>
       <c r="Q181" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A182" s="8" t="str">
-        <f>CONCATENATE(B182,C182)</f>
+      <c r="A182" t="str">
+        <f t="shared" si="6"/>
         <v>VT01246</v>
       </c>
       <c r="B182" t="s">
         <v>1111</v>
       </c>
-      <c r="C182" s="8" t="s">
+      <c r="C182" t="s">
         <v>1290</v>
       </c>
       <c r="D182" t="s">
@@ -22568,23 +22564,23 @@
         <v>859</v>
       </c>
       <c r="P182" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Zach Polon</v>
       </c>
       <c r="Q182" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>PART TIME</v>
       </c>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A183" s="8" t="str">
-        <f>CONCATENATE(B183,C183)</f>
+      <c r="A183" t="str">
+        <f t="shared" si="6"/>
         <v>PR02275</v>
       </c>
       <c r="B183" t="s">
         <v>1106</v>
       </c>
-      <c r="C183" s="8" t="s">
+      <c r="C183" t="s">
         <v>1291</v>
       </c>
       <c r="D183" t="s">
@@ -22621,23 +22617,23 @@
         <v>15</v>
       </c>
       <c r="P183" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Louise Lamming</v>
       </c>
       <c r="Q183" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A184" s="8" t="str">
-        <f>CONCATENATE(B184,C184)</f>
+      <c r="A184" t="str">
+        <f t="shared" si="6"/>
         <v>TN04166</v>
       </c>
       <c r="B184" t="s">
         <v>1113</v>
       </c>
-      <c r="C184" s="8" t="s">
+      <c r="C184" t="s">
         <v>1292</v>
       </c>
       <c r="D184" t="s">
@@ -22674,23 +22670,23 @@
         <v>15</v>
       </c>
       <c r="P184" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Tadio Dowdle</v>
       </c>
       <c r="Q184" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A185" s="8" t="str">
-        <f>CONCATENATE(B185,C185)</f>
+      <c r="A185" t="str">
+        <f t="shared" si="6"/>
         <v>SQ00070</v>
       </c>
       <c r="B185" t="s">
         <v>1109</v>
       </c>
-      <c r="C185" s="8" t="s">
+      <c r="C185" t="s">
         <v>1293</v>
       </c>
       <c r="D185" t="s">
@@ -22727,23 +22723,23 @@
         <v>15</v>
       </c>
       <c r="P185" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Larissa Ingledow</v>
       </c>
       <c r="Q185" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A186" s="8" t="str">
-        <f>CONCATENATE(B186,C186)</f>
+      <c r="A186" t="str">
+        <f t="shared" si="6"/>
         <v>TN01701</v>
       </c>
       <c r="B186" t="s">
         <v>1113</v>
       </c>
-      <c r="C186" s="8" t="s">
+      <c r="C186" t="s">
         <v>1294</v>
       </c>
       <c r="D186" t="s">
@@ -22783,23 +22779,23 @@
         <v>1096</v>
       </c>
       <c r="P186" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Yves Pawlik</v>
       </c>
       <c r="Q186" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>PART TIME</v>
       </c>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A187" s="8" t="str">
-        <f>CONCATENATE(B187,C187)</f>
+      <c r="A187" t="str">
+        <f t="shared" si="6"/>
         <v>VT03298</v>
       </c>
       <c r="B187" t="s">
         <v>1111</v>
       </c>
-      <c r="C187" s="8" t="s">
+      <c r="C187" t="s">
         <v>1295</v>
       </c>
       <c r="D187" t="s">
@@ -22839,23 +22835,23 @@
         <v>1097</v>
       </c>
       <c r="P187" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Nonah Bissell</v>
       </c>
       <c r="Q187" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A188" s="8" t="str">
-        <f>CONCATENATE(B188,C188)</f>
+      <c r="A188" t="str">
+        <f t="shared" si="6"/>
         <v>TN04892</v>
       </c>
       <c r="B188" t="s">
         <v>1113</v>
       </c>
-      <c r="C188" s="8" t="s">
+      <c r="C188" t="s">
         <v>1296</v>
       </c>
       <c r="D188" t="s">
@@ -22892,23 +22888,23 @@
         <v>15</v>
       </c>
       <c r="P188" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Luca Wolstenholme</v>
       </c>
       <c r="Q188" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A189" s="8" t="str">
-        <f>CONCATENATE(B189,C189)</f>
+      <c r="A189" t="str">
+        <f t="shared" si="6"/>
         <v>PR01055</v>
       </c>
       <c r="B189" t="s">
         <v>1106</v>
       </c>
-      <c r="C189" s="8" t="s">
+      <c r="C189" t="s">
         <v>1297</v>
       </c>
       <c r="D189" t="s">
@@ -22948,23 +22944,23 @@
         <v>1099</v>
       </c>
       <c r="P189" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Gavan Puttan</v>
       </c>
       <c r="Q189" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A190" s="8" t="str">
-        <f>CONCATENATE(B190,C190)</f>
+      <c r="A190" t="str">
+        <f t="shared" si="6"/>
         <v>SQ04437</v>
       </c>
       <c r="B190" t="s">
         <v>1109</v>
       </c>
-      <c r="C190" s="8" t="s">
+      <c r="C190" t="s">
         <v>1298</v>
       </c>
       <c r="D190" t="s">
@@ -23001,23 +22997,23 @@
         <v>15</v>
       </c>
       <c r="P190" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Hephzibah Summerell</v>
       </c>
       <c r="Q190" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A191" s="8" t="str">
-        <f>CONCATENATE(B191,C191)</f>
+      <c r="A191" t="str">
+        <f t="shared" si="6"/>
         <v>PR00770</v>
       </c>
       <c r="B191" t="s">
         <v>1106</v>
       </c>
-      <c r="C191" s="8" t="s">
+      <c r="C191" t="s">
         <v>1299</v>
       </c>
       <c r="D191" t="s">
@@ -23057,23 +23053,23 @@
         <v>1096</v>
       </c>
       <c r="P191" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Beryl Burnsyde</v>
       </c>
       <c r="Q191" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A192" s="8" t="str">
-        <f>CONCATENATE(B192,C192)</f>
+      <c r="A192" t="str">
+        <f t="shared" si="6"/>
         <v>VT01762</v>
       </c>
       <c r="B192" t="s">
         <v>1111</v>
       </c>
-      <c r="C192" s="8" t="s">
+      <c r="C192" t="s">
         <v>1300</v>
       </c>
       <c r="D192" t="s">
@@ -23113,23 +23109,23 @@
         <v>1099</v>
       </c>
       <c r="P192" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Mata Fishley</v>
       </c>
       <c r="Q192" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A193" s="8" t="str">
-        <f>CONCATENATE(B193,C193)</f>
+      <c r="A193" t="str">
+        <f t="shared" si="6"/>
         <v>VT04273</v>
       </c>
       <c r="B193" t="s">
         <v>1111</v>
       </c>
-      <c r="C193" s="8" t="s">
+      <c r="C193" t="s">
         <v>1301</v>
       </c>
       <c r="D193" t="s">
@@ -23166,23 +23162,23 @@
         <v>15</v>
       </c>
       <c r="P193" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Brad Gumb</v>
       </c>
       <c r="Q193" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A194" s="8" t="str">
-        <f>CONCATENATE(B194,C194)</f>
+      <c r="A194" t="str">
+        <f t="shared" ref="A194:A257" si="9">CONCATENATE(B194,C194)</f>
         <v>SQ00187</v>
       </c>
       <c r="B194" t="s">
         <v>1109</v>
       </c>
-      <c r="C194" s="8" t="s">
+      <c r="C194" t="s">
         <v>1302</v>
       </c>
       <c r="D194" t="s">
@@ -23222,23 +23218,23 @@
         <v>860</v>
       </c>
       <c r="P194" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Karlen McCaffrey</v>
       </c>
       <c r="Q194" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A195" s="8" t="str">
-        <f>CONCATENATE(B195,C195)</f>
+      <c r="A195" t="str">
+        <f t="shared" si="9"/>
         <v>PR01383</v>
       </c>
       <c r="B195" t="s">
         <v>1106</v>
       </c>
-      <c r="C195" s="8" t="s">
+      <c r="C195" t="s">
         <v>1303</v>
       </c>
       <c r="D195" t="s">
@@ -23278,23 +23274,23 @@
         <v>1096</v>
       </c>
       <c r="P195" t="str">
-        <f t="shared" ref="P195:P238" si="6">TRIM(D195)</f>
+        <f t="shared" ref="P195:P238" si="10">TRIM(D195)</f>
         <v>Addi Studdeard</v>
       </c>
       <c r="Q195" t="str">
-        <f t="shared" ref="Q195:Q238" si="7">IF(I195&lt;1,"PART TIME","FULL TIME")</f>
+        <f t="shared" ref="Q195:Q238" si="11">IF(I195&lt;1,"PART TIME","FULL TIME")</f>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A196" s="8" t="str">
-        <f>CONCATENATE(B196,C196)</f>
+      <c r="A196" t="str">
+        <f t="shared" si="9"/>
         <v>TN00258</v>
       </c>
       <c r="B196" t="s">
         <v>1113</v>
       </c>
-      <c r="C196" s="8" t="s">
+      <c r="C196" t="s">
         <v>1304</v>
       </c>
       <c r="D196" t="s">
@@ -23334,23 +23330,23 @@
         <v>1098</v>
       </c>
       <c r="P196" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Joyce Leyband</v>
       </c>
       <c r="Q196" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A197" s="8" t="str">
-        <f>CONCATENATE(B197,C197)</f>
+      <c r="A197" t="str">
+        <f t="shared" si="9"/>
         <v>VT00839</v>
       </c>
       <c r="B197" t="s">
         <v>1111</v>
       </c>
-      <c r="C197" s="8" t="s">
+      <c r="C197" t="s">
         <v>1305</v>
       </c>
       <c r="D197" t="s">
@@ -23388,23 +23384,23 @@
         <v>1097</v>
       </c>
       <c r="P197" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Tulley Chiddy</v>
       </c>
       <c r="Q197" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A198" s="8" t="str">
-        <f>CONCATENATE(B198,C198)</f>
+      <c r="A198" t="str">
+        <f t="shared" si="9"/>
         <v>VT00476</v>
       </c>
       <c r="B198" t="s">
         <v>1111</v>
       </c>
-      <c r="C198" s="8" t="s">
+      <c r="C198" t="s">
         <v>1306</v>
       </c>
       <c r="D198" t="s">
@@ -23444,23 +23440,23 @@
         <v>1098</v>
       </c>
       <c r="P198" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Adolph Hartin</v>
       </c>
       <c r="Q198" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A199" s="8" t="str">
-        <f>CONCATENATE(B199,C199)</f>
+      <c r="A199" t="str">
+        <f t="shared" si="9"/>
         <v>SQ04934</v>
       </c>
       <c r="B199" t="s">
         <v>1109</v>
       </c>
-      <c r="C199" s="8" t="s">
+      <c r="C199" t="s">
         <v>1307</v>
       </c>
       <c r="D199" t="s">
@@ -23498,23 +23494,23 @@
         <v>859</v>
       </c>
       <c r="P199" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Pedro St. Hill</v>
       </c>
       <c r="Q199" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>PART TIME</v>
       </c>
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A200" s="8" t="str">
-        <f>CONCATENATE(B200,C200)</f>
+      <c r="A200" t="str">
+        <f t="shared" si="9"/>
         <v>TN01566</v>
       </c>
       <c r="B200" t="s">
         <v>1113</v>
       </c>
-      <c r="C200" s="8" t="s">
+      <c r="C200" t="s">
         <v>1308</v>
       </c>
       <c r="D200" t="s">
@@ -23551,23 +23547,23 @@
         <v>15</v>
       </c>
       <c r="P200" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Fonzie O'Shea</v>
       </c>
       <c r="Q200" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A201" s="8" t="str">
-        <f>CONCATENATE(B201,C201)</f>
+      <c r="A201" t="str">
+        <f t="shared" si="9"/>
         <v>PR04851</v>
       </c>
       <c r="B201" t="s">
         <v>1106</v>
       </c>
-      <c r="C201" s="8" t="s">
+      <c r="C201" t="s">
         <v>1309</v>
       </c>
       <c r="D201" t="s">
@@ -23604,23 +23600,23 @@
         <v>15</v>
       </c>
       <c r="P201" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Rodina Drinan</v>
       </c>
       <c r="Q201" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A202" s="8" t="str">
-        <f>CONCATENATE(B202,C202)</f>
+      <c r="A202" t="str">
+        <f t="shared" si="9"/>
         <v>PR00007</v>
       </c>
       <c r="B202" t="s">
         <v>1106</v>
       </c>
-      <c r="C202" s="8" t="s">
+      <c r="C202" t="s">
         <v>1310</v>
       </c>
       <c r="D202" t="s">
@@ -23660,23 +23656,23 @@
         <v>1096</v>
       </c>
       <c r="P202" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Torrance Collier</v>
       </c>
       <c r="Q202" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>PART TIME</v>
       </c>
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A203" s="8" t="str">
-        <f>CONCATENATE(B203,C203)</f>
+      <c r="A203" t="str">
+        <f t="shared" si="9"/>
         <v>SQ03491</v>
       </c>
       <c r="B203" t="s">
         <v>1109</v>
       </c>
-      <c r="C203" s="8" t="s">
+      <c r="C203" t="s">
         <v>1311</v>
       </c>
       <c r="D203" t="s">
@@ -23716,23 +23712,23 @@
         <v>1097</v>
       </c>
       <c r="P203" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Freda Legan</v>
       </c>
       <c r="Q203" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A204" s="8" t="str">
-        <f>CONCATENATE(B204,C204)</f>
+      <c r="A204" t="str">
+        <f t="shared" si="9"/>
         <v>SQ02465</v>
       </c>
       <c r="B204" t="s">
         <v>1109</v>
       </c>
-      <c r="C204" s="8" t="s">
+      <c r="C204" t="s">
         <v>1312</v>
       </c>
       <c r="D204" t="s">
@@ -23769,23 +23765,23 @@
         <v>15</v>
       </c>
       <c r="P204" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Bernie Gorges</v>
       </c>
       <c r="Q204" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A205" s="8" t="str">
-        <f>CONCATENATE(B205,C205)</f>
+      <c r="A205" t="str">
+        <f t="shared" si="9"/>
         <v>VT00194</v>
       </c>
       <c r="B205" t="s">
         <v>1111</v>
       </c>
-      <c r="C205" s="8" t="s">
+      <c r="C205" t="s">
         <v>1313</v>
       </c>
       <c r="D205" t="s">
@@ -23822,23 +23818,23 @@
         <v>15</v>
       </c>
       <c r="P205" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Violante Courtonne</v>
       </c>
       <c r="Q205" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>PART TIME</v>
       </c>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A206" s="8" t="str">
-        <f>CONCATENATE(B206,C206)</f>
+      <c r="A206" t="str">
+        <f t="shared" si="9"/>
         <v>TN00328</v>
       </c>
       <c r="B206" t="s">
         <v>1113</v>
       </c>
-      <c r="C206" s="8" t="s">
+      <c r="C206" t="s">
         <v>1314</v>
       </c>
       <c r="D206" t="s">
@@ -23878,23 +23874,23 @@
         <v>859</v>
       </c>
       <c r="P206" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Jeannie Petracco</v>
       </c>
       <c r="Q206" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A207" s="8" t="str">
-        <f>CONCATENATE(B207,C207)</f>
+      <c r="A207" t="str">
+        <f t="shared" si="9"/>
         <v>PR03137</v>
       </c>
       <c r="B207" t="s">
         <v>1106</v>
       </c>
-      <c r="C207" s="8" t="s">
+      <c r="C207" t="s">
         <v>1315</v>
       </c>
       <c r="D207" t="s">
@@ -23934,23 +23930,23 @@
         <v>1099</v>
       </c>
       <c r="P207" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Nolan Tortis</v>
       </c>
       <c r="Q207" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A208" s="8" t="str">
-        <f>CONCATENATE(B208,C208)</f>
+      <c r="A208" t="str">
+        <f t="shared" si="9"/>
         <v>PR00246</v>
       </c>
       <c r="B208" t="s">
         <v>1106</v>
       </c>
-      <c r="C208" s="8" t="s">
+      <c r="C208" t="s">
         <v>1316</v>
       </c>
       <c r="D208" t="s">
@@ -23987,23 +23983,23 @@
         <v>15</v>
       </c>
       <c r="P208" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Husein Augar</v>
       </c>
       <c r="Q208" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A209" s="8" t="str">
-        <f>CONCATENATE(B209,C209)</f>
+      <c r="A209" t="str">
+        <f t="shared" si="9"/>
         <v>SQ02371</v>
       </c>
       <c r="B209" t="s">
         <v>1109</v>
       </c>
-      <c r="C209" s="8" t="s">
+      <c r="C209" t="s">
         <v>1317</v>
       </c>
       <c r="D209" t="s">
@@ -24043,23 +24039,23 @@
         <v>1096</v>
       </c>
       <c r="P209" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Alida Welman</v>
       </c>
       <c r="Q209" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A210" s="8" t="str">
-        <f>CONCATENATE(B210,C210)</f>
+      <c r="A210" t="str">
+        <f t="shared" si="9"/>
         <v>VT04350</v>
       </c>
       <c r="B210" t="s">
         <v>1111</v>
       </c>
-      <c r="C210" s="8" t="s">
+      <c r="C210" t="s">
         <v>1318</v>
       </c>
       <c r="D210" t="s">
@@ -24099,23 +24095,23 @@
         <v>1099</v>
       </c>
       <c r="P210" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Trix Lutsch</v>
       </c>
       <c r="Q210" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A211" s="8" t="str">
-        <f>CONCATENATE(B211,C211)</f>
+      <c r="A211" t="str">
+        <f t="shared" si="9"/>
         <v>SQ02035</v>
       </c>
       <c r="B211" t="s">
         <v>1109</v>
       </c>
-      <c r="C211" s="8" t="s">
+      <c r="C211" t="s">
         <v>1319</v>
       </c>
       <c r="D211" t="s">
@@ -24152,23 +24148,23 @@
         <v>15</v>
       </c>
       <c r="P211" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Anni Izzard</v>
       </c>
       <c r="Q211" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A212" s="8" t="str">
-        <f>CONCATENATE(B212,C212)</f>
+      <c r="A212" t="str">
+        <f t="shared" si="9"/>
         <v>SQ00286</v>
       </c>
       <c r="B212" t="s">
         <v>1109</v>
       </c>
-      <c r="C212" s="8" t="s">
+      <c r="C212" t="s">
         <v>1320</v>
       </c>
       <c r="D212" t="s">
@@ -24208,23 +24204,23 @@
         <v>1099</v>
       </c>
       <c r="P212" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Sile Whorton</v>
       </c>
       <c r="Q212" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A213" s="8" t="str">
-        <f>CONCATENATE(B213,C213)</f>
+      <c r="A213" t="str">
+        <f t="shared" si="9"/>
         <v>TN02205</v>
       </c>
       <c r="B213" t="s">
         <v>1113</v>
       </c>
-      <c r="C213" s="8" t="s">
+      <c r="C213" t="s">
         <v>1321</v>
       </c>
       <c r="D213" t="s">
@@ -24264,23 +24260,23 @@
         <v>860</v>
       </c>
       <c r="P213" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Myer McCory</v>
       </c>
       <c r="Q213" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A214" s="8" t="str">
-        <f>CONCATENATE(B214,C214)</f>
+      <c r="A214" t="str">
+        <f t="shared" si="9"/>
         <v>VT00740</v>
       </c>
       <c r="B214" t="s">
         <v>1111</v>
       </c>
-      <c r="C214" s="8" t="s">
+      <c r="C214" t="s">
         <v>1322</v>
       </c>
       <c r="D214" t="s">
@@ -24320,23 +24316,23 @@
         <v>860</v>
       </c>
       <c r="P214" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Dayle O'Luney</v>
       </c>
       <c r="Q214" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A215" s="8" t="str">
-        <f>CONCATENATE(B215,C215)</f>
+      <c r="A215" t="str">
+        <f t="shared" si="9"/>
         <v>PR01476</v>
       </c>
       <c r="B215" t="s">
         <v>1106</v>
       </c>
-      <c r="C215" s="8" t="s">
+      <c r="C215" t="s">
         <v>1323</v>
       </c>
       <c r="D215" t="s">
@@ -24376,23 +24372,23 @@
         <v>1099</v>
       </c>
       <c r="P215" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Joli Jodrelle</v>
       </c>
       <c r="Q215" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A216" s="8" t="str">
-        <f>CONCATENATE(B216,C216)</f>
+      <c r="A216" t="str">
+        <f t="shared" si="9"/>
         <v>SQ03112</v>
       </c>
       <c r="B216" t="s">
         <v>1109</v>
       </c>
-      <c r="C216" s="8" t="s">
+      <c r="C216" t="s">
         <v>1324</v>
       </c>
       <c r="D216" t="s">
@@ -24432,23 +24428,23 @@
         <v>1099</v>
       </c>
       <c r="P216" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Vlad Strangeway</v>
       </c>
       <c r="Q216" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A217" s="8" t="str">
-        <f>CONCATENATE(B217,C217)</f>
+      <c r="A217" t="str">
+        <f t="shared" si="9"/>
         <v>PR01943</v>
       </c>
       <c r="B217" t="s">
         <v>1106</v>
       </c>
-      <c r="C217" s="8" t="s">
+      <c r="C217" t="s">
         <v>1325</v>
       </c>
       <c r="D217" t="s">
@@ -24488,23 +24484,23 @@
         <v>860</v>
       </c>
       <c r="P217" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Erin Androsik</v>
       </c>
       <c r="Q217" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A218" s="8" t="str">
-        <f>CONCATENATE(B218,C218)</f>
+      <c r="A218" t="str">
+        <f t="shared" si="9"/>
         <v>TN00243</v>
       </c>
       <c r="B218" t="s">
         <v>1113</v>
       </c>
-      <c r="C218" s="8" t="s">
+      <c r="C218" t="s">
         <v>1326</v>
       </c>
       <c r="D218" t="s">
@@ -24542,23 +24538,23 @@
         <v>1098</v>
       </c>
       <c r="P218" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Elbertine Hiscoe</v>
       </c>
       <c r="Q218" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A219" s="8" t="str">
-        <f>CONCATENATE(B219,C219)</f>
+      <c r="A219" t="str">
+        <f t="shared" si="9"/>
         <v>VT01996</v>
       </c>
       <c r="B219" t="s">
         <v>1111</v>
       </c>
-      <c r="C219" s="8" t="s">
+      <c r="C219" t="s">
         <v>1327</v>
       </c>
       <c r="D219" t="s">
@@ -24598,23 +24594,23 @@
         <v>1098</v>
       </c>
       <c r="P219" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Hali Behnecke</v>
       </c>
       <c r="Q219" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A220" s="8" t="str">
-        <f>CONCATENATE(B220,C220)</f>
+      <c r="A220" t="str">
+        <f t="shared" si="9"/>
         <v>SQ02624</v>
       </c>
       <c r="B220" t="s">
         <v>1109</v>
       </c>
-      <c r="C220" s="8" t="s">
+      <c r="C220" t="s">
         <v>1328</v>
       </c>
       <c r="D220" t="s">
@@ -24654,23 +24650,23 @@
         <v>1097</v>
       </c>
       <c r="P220" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Gwenneth Fealey</v>
       </c>
       <c r="Q220" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A221" s="8" t="str">
-        <f>CONCATENATE(B221,C221)</f>
+      <c r="A221" t="str">
+        <f t="shared" si="9"/>
         <v>SQ02565</v>
       </c>
       <c r="B221" t="s">
         <v>1109</v>
       </c>
-      <c r="C221" s="8" t="s">
+      <c r="C221" t="s">
         <v>1329</v>
       </c>
       <c r="D221" t="s">
@@ -24710,23 +24706,23 @@
         <v>1098</v>
       </c>
       <c r="P221" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Konstantin Timblett</v>
       </c>
       <c r="Q221" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A222" s="8" t="str">
-        <f>CONCATENATE(B222,C222)</f>
+      <c r="A222" t="str">
+        <f t="shared" si="9"/>
         <v>SQ02582</v>
       </c>
       <c r="B222" t="s">
         <v>1109</v>
       </c>
-      <c r="C222" s="8" t="s">
+      <c r="C222" t="s">
         <v>1330</v>
       </c>
       <c r="D222" t="s">
@@ -24766,23 +24762,23 @@
         <v>860</v>
       </c>
       <c r="P222" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Grier Kidsley</v>
       </c>
       <c r="Q222" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A223" s="8" t="str">
-        <f>CONCATENATE(B223,C223)</f>
+      <c r="A223" t="str">
+        <f t="shared" si="9"/>
         <v>TN02397</v>
       </c>
       <c r="B223" t="s">
         <v>1113</v>
       </c>
-      <c r="C223" s="8" t="s">
+      <c r="C223" t="s">
         <v>1331</v>
       </c>
       <c r="D223" t="s">
@@ -24822,23 +24818,23 @@
         <v>859</v>
       </c>
       <c r="P223" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Mendel Gentsch</v>
       </c>
       <c r="Q223" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A224" s="8" t="str">
-        <f>CONCATENATE(B224,C224)</f>
+      <c r="A224" t="str">
+        <f t="shared" si="9"/>
         <v>TN04265</v>
       </c>
       <c r="B224" t="s">
         <v>1113</v>
       </c>
-      <c r="C224" s="8" t="s">
+      <c r="C224" t="s">
         <v>1332</v>
       </c>
       <c r="D224" t="s">
@@ -24878,23 +24874,23 @@
         <v>860</v>
       </c>
       <c r="P224" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Rey Chartman</v>
       </c>
       <c r="Q224" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>PART TIME</v>
       </c>
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A225" s="8" t="str">
-        <f>CONCATENATE(B225,C225)</f>
+      <c r="A225" t="str">
+        <f t="shared" si="9"/>
         <v>TN02204</v>
       </c>
       <c r="B225" t="s">
         <v>1113</v>
       </c>
-      <c r="C225" s="8" t="s">
+      <c r="C225" t="s">
         <v>1333</v>
       </c>
       <c r="D225" t="s">
@@ -24934,23 +24930,23 @@
         <v>1097</v>
       </c>
       <c r="P225" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Aldrich Glenny</v>
       </c>
       <c r="Q225" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>PART TIME</v>
       </c>
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A226" s="8" t="str">
-        <f>CONCATENATE(B226,C226)</f>
+      <c r="A226" t="str">
+        <f t="shared" si="9"/>
         <v>PR01306</v>
       </c>
       <c r="B226" t="s">
         <v>1106</v>
       </c>
-      <c r="C226" s="8" t="s">
+      <c r="C226" t="s">
         <v>1334</v>
       </c>
       <c r="D226" t="s">
@@ -24990,23 +24986,23 @@
         <v>1098</v>
       </c>
       <c r="P226" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Patti Dradey</v>
       </c>
       <c r="Q226" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A227" s="8" t="str">
-        <f>CONCATENATE(B227,C227)</f>
+      <c r="A227" t="str">
+        <f t="shared" si="9"/>
         <v>VT03771</v>
       </c>
       <c r="B227" t="s">
         <v>1111</v>
       </c>
-      <c r="C227" s="8" t="s">
+      <c r="C227" t="s">
         <v>1335</v>
       </c>
       <c r="D227" t="s">
@@ -25043,23 +25039,23 @@
         <v>15</v>
       </c>
       <c r="P227" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Marjie Bamford</v>
       </c>
       <c r="Q227" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A228" s="8" t="str">
-        <f>CONCATENATE(B228,C228)</f>
+      <c r="A228" t="str">
+        <f t="shared" si="9"/>
         <v>SQ04613</v>
       </c>
       <c r="B228" t="s">
         <v>1109</v>
       </c>
-      <c r="C228" s="8" t="s">
+      <c r="C228" t="s">
         <v>1336</v>
       </c>
       <c r="D228" t="s">
@@ -25099,23 +25095,23 @@
         <v>1099</v>
       </c>
       <c r="P228" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Kelly Corkitt</v>
       </c>
       <c r="Q228" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A229" s="8" t="str">
-        <f>CONCATENATE(B229,C229)</f>
+      <c r="A229" t="str">
+        <f t="shared" si="9"/>
         <v>SQ04116</v>
       </c>
       <c r="B229" t="s">
         <v>1109</v>
       </c>
-      <c r="C229" s="8" t="s">
+      <c r="C229" t="s">
         <v>1337</v>
       </c>
       <c r="D229" t="s">
@@ -25153,23 +25149,23 @@
         <v>1097</v>
       </c>
       <c r="P229" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Claretta MacQuist</v>
       </c>
       <c r="Q229" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A230" s="8" t="str">
-        <f>CONCATENATE(B230,C230)</f>
+      <c r="A230" t="str">
+        <f t="shared" si="9"/>
         <v>PR02436</v>
       </c>
       <c r="B230" t="s">
         <v>1106</v>
       </c>
-      <c r="C230" s="8" t="s">
+      <c r="C230" t="s">
         <v>1338</v>
       </c>
       <c r="D230" t="s">
@@ -25206,23 +25202,23 @@
         <v>15</v>
       </c>
       <c r="P230" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Marmaduke Worssam</v>
       </c>
       <c r="Q230" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>PART TIME</v>
       </c>
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A231" s="8" t="str">
-        <f>CONCATENATE(B231,C231)</f>
+      <c r="A231" t="str">
+        <f t="shared" si="9"/>
         <v>VT00534</v>
       </c>
       <c r="B231" t="s">
         <v>1111</v>
       </c>
-      <c r="C231" s="8" t="s">
+      <c r="C231" t="s">
         <v>1339</v>
       </c>
       <c r="D231" t="s">
@@ -25262,23 +25258,23 @@
         <v>859</v>
       </c>
       <c r="P231" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Roselle Wandrach</v>
       </c>
       <c r="Q231" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A232" s="8" t="str">
-        <f>CONCATENATE(B232,C232)</f>
+      <c r="A232" t="str">
+        <f t="shared" si="9"/>
         <v>TN01396</v>
       </c>
       <c r="B232" t="s">
         <v>1113</v>
       </c>
-      <c r="C232" s="8" t="s">
+      <c r="C232" t="s">
         <v>1340</v>
       </c>
       <c r="D232" t="s">
@@ -25318,23 +25314,23 @@
         <v>1096</v>
       </c>
       <c r="P232" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Koral Gerriet</v>
       </c>
       <c r="Q232" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A233" s="8" t="str">
-        <f>CONCATENATE(B233,C233)</f>
+      <c r="A233" t="str">
+        <f t="shared" si="9"/>
         <v>TN02377</v>
       </c>
       <c r="B233" t="s">
         <v>1113</v>
       </c>
-      <c r="C233" s="8" t="s">
+      <c r="C233" t="s">
         <v>1341</v>
       </c>
       <c r="D233" t="s">
@@ -25371,23 +25367,23 @@
         <v>15</v>
       </c>
       <c r="P233" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Anjela Spancock</v>
       </c>
       <c r="Q233" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A234" s="8" t="str">
-        <f>CONCATENATE(B234,C234)</f>
+      <c r="A234" t="str">
+        <f t="shared" si="9"/>
         <v>TN02988</v>
       </c>
       <c r="B234" t="s">
         <v>1113</v>
       </c>
-      <c r="C234" s="8" t="s">
+      <c r="C234" t="s">
         <v>1342</v>
       </c>
       <c r="D234" t="s">
@@ -25427,23 +25423,23 @@
         <v>860</v>
       </c>
       <c r="P234" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Hobie Stockbridge</v>
       </c>
       <c r="Q234" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A235" s="8" t="str">
-        <f>CONCATENATE(B235,C235)</f>
+      <c r="A235" t="str">
+        <f t="shared" si="9"/>
         <v>VT04905</v>
       </c>
       <c r="B235" t="s">
         <v>1111</v>
       </c>
-      <c r="C235" s="8" t="s">
+      <c r="C235" t="s">
         <v>1343</v>
       </c>
       <c r="D235" t="s">
@@ -25483,23 +25479,23 @@
         <v>860</v>
       </c>
       <c r="P235" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Bryant Scamp</v>
       </c>
       <c r="Q235" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>PART TIME</v>
       </c>
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A236" s="8" t="str">
-        <f>CONCATENATE(B236,C236)</f>
+      <c r="A236" t="str">
+        <f t="shared" si="9"/>
         <v>PR04366</v>
       </c>
       <c r="B236" t="s">
         <v>1106</v>
       </c>
-      <c r="C236" s="8" t="s">
+      <c r="C236" t="s">
         <v>1344</v>
       </c>
       <c r="D236" t="s">
@@ -25539,23 +25535,23 @@
         <v>1098</v>
       </c>
       <c r="P236" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Carry Loblie</v>
       </c>
       <c r="Q236" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A237" s="8" t="str">
-        <f>CONCATENATE(B237,C237)</f>
+      <c r="A237" t="str">
+        <f t="shared" si="9"/>
         <v>TN04775</v>
       </c>
       <c r="B237" t="s">
         <v>1113</v>
       </c>
-      <c r="C237" s="8" t="s">
+      <c r="C237" t="s">
         <v>1345</v>
       </c>
       <c r="D237" t="s">
@@ -25595,23 +25591,23 @@
         <v>1099</v>
       </c>
       <c r="P237" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Desi Peniman</v>
       </c>
       <c r="Q237" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A238" s="8" t="str">
-        <f>CONCATENATE(B238,C238)</f>
+      <c r="A238" t="str">
+        <f t="shared" si="9"/>
         <v>SQ03625</v>
       </c>
       <c r="B238" t="s">
         <v>1109</v>
       </c>
-      <c r="C238" s="8" t="s">
+      <c r="C238" t="s">
         <v>1346</v>
       </c>
       <c r="D238" t="s">
@@ -25648,11 +25644,11 @@
         <v>15</v>
       </c>
       <c r="P238" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Fidela Artis</v>
       </c>
       <c r="Q238" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>FULL TIME</v>
       </c>
     </row>
